--- a/public/exportRace.xlsx
+++ b/public/exportRace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="751">
   <si>
     <t>shortname</t>
   </si>
@@ -65,7 +65,7 @@
     <t>AKA</t>
   </si>
   <si>
-    <t>Millie</t>
+    <t>Mathéo</t>
   </si>
   <si>
     <t>2023-03-30 00:08:39</t>
@@ -78,6 +78,2196 @@
   </si>
   <si>
     <t>2023-03-30 00:08:02</t>
+  </si>
+  <si>
+    <t>Yanis</t>
+  </si>
+  <si>
+    <t>ALLIX</t>
+  </si>
+  <si>
+    <t>2023-03-30 00:12:30</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>ALMIN</t>
+  </si>
+  <si>
+    <t>Nino</t>
+  </si>
+  <si>
+    <t>AMILCAR</t>
+  </si>
+  <si>
+    <t>Malia</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>Thelma</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>ANDREY</t>
+  </si>
+  <si>
+    <t>Enzo</t>
+  </si>
+  <si>
+    <t>ANFRAY</t>
+  </si>
+  <si>
+    <t>Sulyvan</t>
+  </si>
+  <si>
+    <t>2023-03-30 00:07:30</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>ARONDEL</t>
+  </si>
+  <si>
+    <t>2023-03-30 00:07:02</t>
+  </si>
+  <si>
+    <t>Léandre</t>
+  </si>
+  <si>
+    <t>Aliya</t>
+  </si>
+  <si>
+    <t>ASKLOU</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>AUBERT</t>
+  </si>
+  <si>
+    <t>Toscane</t>
+  </si>
+  <si>
+    <t>Aubin</t>
+  </si>
+  <si>
+    <t>AUBREE</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Mylan</t>
+  </si>
+  <si>
+    <t>AUBRY</t>
+  </si>
+  <si>
+    <t>Maëly</t>
+  </si>
+  <si>
+    <t>BABONNEAU</t>
+  </si>
+  <si>
+    <t>Thaïs</t>
+  </si>
+  <si>
+    <t>BAILLARD</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>BALOG</t>
+  </si>
+  <si>
+    <t>Envel</t>
+  </si>
+  <si>
+    <t>BARBEDETTE</t>
+  </si>
+  <si>
+    <t>Loris</t>
+  </si>
+  <si>
+    <t>BARON</t>
+  </si>
+  <si>
+    <t>Eulalie</t>
+  </si>
+  <si>
+    <t>BAZIN</t>
+  </si>
+  <si>
+    <t>Léa</t>
+  </si>
+  <si>
+    <t>BAZIRE</t>
+  </si>
+  <si>
+    <t>Naomie</t>
+  </si>
+  <si>
+    <t>Jeanne</t>
+  </si>
+  <si>
+    <t>BEAUCHER</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>BEAUFILS</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>BEAULIEU</t>
+  </si>
+  <si>
+    <t>2023-03-30 13:48:40</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>BEAUQUESNE</t>
+  </si>
+  <si>
+    <t>2023-03-30 13:50:32</t>
+  </si>
+  <si>
+    <t>BEAURUELLE</t>
+  </si>
+  <si>
+    <t>Mathis</t>
+  </si>
+  <si>
+    <t>BELPRE</t>
+  </si>
+  <si>
+    <t>Soan</t>
+  </si>
+  <si>
+    <t>BEMBA PETIPAS</t>
+  </si>
+  <si>
+    <t>Lucie</t>
+  </si>
+  <si>
+    <t>BENOIST</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>BERNARD</t>
+  </si>
+  <si>
+    <t>Marius</t>
+  </si>
+  <si>
+    <t>Saturnin</t>
+  </si>
+  <si>
+    <t>Perine</t>
+  </si>
+  <si>
+    <t>BESNIER</t>
+  </si>
+  <si>
+    <t>Isaïah</t>
+  </si>
+  <si>
+    <t>BESSON</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>BIDET</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>BIGOT</t>
+  </si>
+  <si>
+    <t>Ylhann</t>
+  </si>
+  <si>
+    <t>BIGOT DUCHEMIN</t>
+  </si>
+  <si>
+    <t>BIGREL</t>
+  </si>
+  <si>
+    <t>Loane</t>
+  </si>
+  <si>
+    <t>Soizic</t>
+  </si>
+  <si>
+    <t>BIHEL</t>
+  </si>
+  <si>
+    <t>Albane</t>
+  </si>
+  <si>
+    <t>BODIN</t>
+  </si>
+  <si>
+    <t>Brieuc</t>
+  </si>
+  <si>
+    <t>Anaël</t>
+  </si>
+  <si>
+    <t>BOISIVON</t>
+  </si>
+  <si>
+    <t>BOISSEL</t>
+  </si>
+  <si>
+    <t>BOITTIN</t>
+  </si>
+  <si>
+    <t>BONAMY</t>
+  </si>
+  <si>
+    <t>Nola</t>
+  </si>
+  <si>
+    <t>BONNARD</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>BOUCOT</t>
+  </si>
+  <si>
+    <t>2023-03-30 00:06:37</t>
+  </si>
+  <si>
+    <t>Maximilien</t>
+  </si>
+  <si>
+    <t>BOUDANT</t>
+  </si>
+  <si>
+    <t>Adryen</t>
+  </si>
+  <si>
+    <t>BOUDER</t>
+  </si>
+  <si>
+    <t>BOUDET</t>
+  </si>
+  <si>
+    <t>Louna</t>
+  </si>
+  <si>
+    <t>Suan</t>
+  </si>
+  <si>
+    <t>BOUFFORT</t>
+  </si>
+  <si>
+    <t>Célia</t>
+  </si>
+  <si>
+    <t>BOUGON</t>
+  </si>
+  <si>
+    <t>Willem</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>BOUILLIER</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>BOULET</t>
+  </si>
+  <si>
+    <t>Naëlys</t>
+  </si>
+  <si>
+    <t>Romane</t>
+  </si>
+  <si>
+    <t>Wesley</t>
+  </si>
+  <si>
+    <t>BOUQUEREL</t>
+  </si>
+  <si>
+    <t>BOUROULT</t>
+  </si>
+  <si>
+    <t>Suzie</t>
+  </si>
+  <si>
+    <t>BOUVET</t>
+  </si>
+  <si>
+    <t>Théo</t>
+  </si>
+  <si>
+    <t>BOUVIER</t>
+  </si>
+  <si>
+    <t>Ilyas</t>
+  </si>
+  <si>
+    <t>BREHIER</t>
+  </si>
+  <si>
+    <t>Maël</t>
+  </si>
+  <si>
+    <t>BRELIVET</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>BRIAND</t>
+  </si>
+  <si>
+    <t>Noëlie</t>
+  </si>
+  <si>
+    <t>BRIAULT</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>BRIERE</t>
+  </si>
+  <si>
+    <t>Léo</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Margaux</t>
+  </si>
+  <si>
+    <t>Jules</t>
+  </si>
+  <si>
+    <t>BRILLAUD</t>
+  </si>
+  <si>
+    <t>Castille</t>
+  </si>
+  <si>
+    <t>BURONFOSSE</t>
+  </si>
+  <si>
+    <t>CAHOREL</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>Mathys</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>CAHU</t>
+  </si>
+  <si>
+    <t>Maxence</t>
+  </si>
+  <si>
+    <t>CAILLIERE</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>CARATY</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>CARNET--PONTAIS</t>
+  </si>
+  <si>
+    <t>Violette</t>
+  </si>
+  <si>
+    <t>CARPENTIER--MURATORE</t>
+  </si>
+  <si>
+    <t>Grégoire</t>
+  </si>
+  <si>
+    <t>CARRE</t>
+  </si>
+  <si>
+    <t>CAUCHARD</t>
+  </si>
+  <si>
+    <t>Pierre-Antoine</t>
+  </si>
+  <si>
+    <t>CAUSSADE</t>
+  </si>
+  <si>
+    <t>CERBONNEY</t>
+  </si>
+  <si>
+    <t>Léo-Paul</t>
+  </si>
+  <si>
+    <t>CHAIGNON</t>
+  </si>
+  <si>
+    <t>Noé</t>
+  </si>
+  <si>
+    <t>CHAPDELAINE</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>CHAPET BERTHELOT</t>
+  </si>
+  <si>
+    <t>CHARLIER</t>
+  </si>
+  <si>
+    <t>Capucine</t>
+  </si>
+  <si>
+    <t>CHARUEL</t>
+  </si>
+  <si>
+    <t>Lyséa</t>
+  </si>
+  <si>
+    <t>CHAUSSE</t>
+  </si>
+  <si>
+    <t>Lou-Anne</t>
+  </si>
+  <si>
+    <t>CHAUVIERE</t>
+  </si>
+  <si>
+    <t>CHAUVIN</t>
+  </si>
+  <si>
+    <t>Lubin</t>
+  </si>
+  <si>
+    <t>CHAUVOIS</t>
+  </si>
+  <si>
+    <t>Marilou</t>
+  </si>
+  <si>
+    <t>CHERBONNEL</t>
+  </si>
+  <si>
+    <t>Enora</t>
+  </si>
+  <si>
+    <t>CHEVALDONNE</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>CHEVALIER</t>
+  </si>
+  <si>
+    <t>CHEVALLIER</t>
+  </si>
+  <si>
+    <t>CHRETIEN</t>
+  </si>
+  <si>
+    <t>Dimitry</t>
+  </si>
+  <si>
+    <t>CLEMENT</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>COHIER</t>
+  </si>
+  <si>
+    <t>Marceau</t>
+  </si>
+  <si>
+    <t>COLOMBIER</t>
+  </si>
+  <si>
+    <t>Victoire</t>
+  </si>
+  <si>
+    <t>Louane</t>
+  </si>
+  <si>
+    <t>COQUELIN</t>
+  </si>
+  <si>
+    <t>CORNE COHIER</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>COSTILS</t>
+  </si>
+  <si>
+    <t>COULOMBIER</t>
+  </si>
+  <si>
+    <t>COURDIER</t>
+  </si>
+  <si>
+    <t>Kévin</t>
+  </si>
+  <si>
+    <t>CROCHET</t>
+  </si>
+  <si>
+    <t>CUDELOU--LECORNU</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>DA SILVA GOMES</t>
+  </si>
+  <si>
+    <t>Aymeric</t>
+  </si>
+  <si>
+    <t>DALIBARD</t>
+  </si>
+  <si>
+    <t>Côme</t>
+  </si>
+  <si>
+    <t>DALIGAULT</t>
+  </si>
+  <si>
+    <t>Adélie</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>DAUTHIEUX</t>
+  </si>
+  <si>
+    <t>Erine</t>
+  </si>
+  <si>
+    <t>DAVOINE</t>
+  </si>
+  <si>
+    <t>DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>Amélie</t>
+  </si>
+  <si>
+    <t>DE LAUBIER</t>
+  </si>
+  <si>
+    <t>Nils</t>
+  </si>
+  <si>
+    <t>DE ROQUEFEUIL</t>
+  </si>
+  <si>
+    <t>DE SMET</t>
+  </si>
+  <si>
+    <t>Paloma</t>
+  </si>
+  <si>
+    <t>DEBAS</t>
+  </si>
+  <si>
+    <t>Clément</t>
+  </si>
+  <si>
+    <t>DEBIEU GUILLAUME</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>DEBON</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>DEFLOOR</t>
+  </si>
+  <si>
+    <t>2023-03-30 00:14:04</t>
+  </si>
+  <si>
+    <t>DELAHAYE</t>
+  </si>
+  <si>
+    <t>Milo</t>
+  </si>
+  <si>
+    <t>DELANNEY</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>DELANOE</t>
+  </si>
+  <si>
+    <t>Baptiste</t>
+  </si>
+  <si>
+    <t>DELAROCHE</t>
+  </si>
+  <si>
+    <t>Annaëg</t>
+  </si>
+  <si>
+    <t>DELPLACE POIRIER</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>DENIS</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>DEROYANT</t>
+  </si>
+  <si>
+    <t>DESEVEDAVY</t>
+  </si>
+  <si>
+    <t>Nolan</t>
+  </si>
+  <si>
+    <t>DESGRANGES</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>DESVOYS</t>
+  </si>
+  <si>
+    <t>Nathanaël</t>
+  </si>
+  <si>
+    <t>DHONDT</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>DIOMANDE</t>
+  </si>
+  <si>
+    <t>Ismaël</t>
+  </si>
+  <si>
+    <t>Sacha</t>
+  </si>
+  <si>
+    <t>DODIER</t>
+  </si>
+  <si>
+    <t>Laly</t>
+  </si>
+  <si>
+    <t>DOMALAIN</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>DOMERGUE</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>DOREY</t>
+  </si>
+  <si>
+    <t>DOUBLET</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>DROSSARD</t>
+  </si>
+  <si>
+    <t>Senny</t>
+  </si>
+  <si>
+    <t>DRYBURGH</t>
+  </si>
+  <si>
+    <t>Wedy</t>
+  </si>
+  <si>
+    <t>DUBOURG</t>
+  </si>
+  <si>
+    <t>DUCHEMIN</t>
+  </si>
+  <si>
+    <t>Apolline</t>
+  </si>
+  <si>
+    <t>DUCLOS</t>
+  </si>
+  <si>
+    <t>Dévann</t>
+  </si>
+  <si>
+    <t>Eloi</t>
+  </si>
+  <si>
+    <t>DUFOUR</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>DUGUE</t>
+  </si>
+  <si>
+    <t>Pauline</t>
+  </si>
+  <si>
+    <t>Orlane</t>
+  </si>
+  <si>
+    <t>DUMONT</t>
+  </si>
+  <si>
+    <t>DUREY</t>
+  </si>
+  <si>
+    <t>Joséphine</t>
+  </si>
+  <si>
+    <t>DUTEIL</t>
+  </si>
+  <si>
+    <t>Maylis</t>
+  </si>
+  <si>
+    <t>DUVAL</t>
+  </si>
+  <si>
+    <t>2023-03-30 00:18:45</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t>EQUILBEY</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>ESNAULT</t>
+  </si>
+  <si>
+    <t>Roxane</t>
+  </si>
+  <si>
+    <t>EUGENE</t>
+  </si>
+  <si>
+    <t>FAGUAIS</t>
+  </si>
+  <si>
+    <t>Isaë</t>
+  </si>
+  <si>
+    <t>FAISSOLE</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>FAROUAULT</t>
+  </si>
+  <si>
+    <t>Louka</t>
+  </si>
+  <si>
+    <t>FERREIRA</t>
+  </si>
+  <si>
+    <t>Lonis</t>
+  </si>
+  <si>
+    <t>FERRERE</t>
+  </si>
+  <si>
+    <t>Maud</t>
+  </si>
+  <si>
+    <t>FILAQUIER</t>
+  </si>
+  <si>
+    <t>Anaïs</t>
+  </si>
+  <si>
+    <t>FIQUET</t>
+  </si>
+  <si>
+    <t>FOURMONT</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>FOURRE</t>
+  </si>
+  <si>
+    <t>FOURREAU</t>
+  </si>
+  <si>
+    <t>Evann</t>
+  </si>
+  <si>
+    <t>GALLE</t>
+  </si>
+  <si>
+    <t>Noam</t>
+  </si>
+  <si>
+    <t>GALLIEN</t>
+  </si>
+  <si>
+    <t>Kylian</t>
+  </si>
+  <si>
+    <t>GARDETTE PASQUER</t>
+  </si>
+  <si>
+    <t>GARDIE</t>
+  </si>
+  <si>
+    <t>Clémence</t>
+  </si>
+  <si>
+    <t>GARNIER</t>
+  </si>
+  <si>
+    <t>Leïla</t>
+  </si>
+  <si>
+    <t>Lévy</t>
+  </si>
+  <si>
+    <t>GAUTIER</t>
+  </si>
+  <si>
+    <t>Thibault</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
+    <t>GAVARD</t>
+  </si>
+  <si>
+    <t>Malvynn</t>
+  </si>
+  <si>
+    <t>GAY</t>
+  </si>
+  <si>
+    <t>GEORGES</t>
+  </si>
+  <si>
+    <t>GILLOT</t>
+  </si>
+  <si>
+    <t>GIRARD</t>
+  </si>
+  <si>
+    <t>GIROULT</t>
+  </si>
+  <si>
+    <t>Emmy</t>
+  </si>
+  <si>
+    <t>GORON GAIGNON</t>
+  </si>
+  <si>
+    <t>GOSSELIN</t>
+  </si>
+  <si>
+    <t>Tylan</t>
+  </si>
+  <si>
+    <t>GOUTTE BLANDIN</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>GRANAT AUBRY</t>
+  </si>
+  <si>
+    <t>Zoé</t>
+  </si>
+  <si>
+    <t>GRAND-LACOTE</t>
+  </si>
+  <si>
+    <t>Chloé</t>
+  </si>
+  <si>
+    <t>GRASSIN</t>
+  </si>
+  <si>
+    <t>Méloé</t>
+  </si>
+  <si>
+    <t>GRIMAULT</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>GRUB</t>
+  </si>
+  <si>
+    <t>Sasha</t>
+  </si>
+  <si>
+    <t>Kieran</t>
+  </si>
+  <si>
+    <t>GUEGUEN</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>GUEMAS</t>
+  </si>
+  <si>
+    <t>Maëlys</t>
+  </si>
+  <si>
+    <t>GUERANDEL</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>GUERENDEL</t>
+  </si>
+  <si>
+    <t>Raphaël</t>
+  </si>
+  <si>
+    <t>GUILLAUME</t>
+  </si>
+  <si>
+    <t>Youen</t>
+  </si>
+  <si>
+    <t>GUILLEMOT</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>GUINAUD</t>
+  </si>
+  <si>
+    <t>Mathieu</t>
+  </si>
+  <si>
+    <t>HAMARD</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>HAMEL</t>
+  </si>
+  <si>
+    <t>HARDELAY HAVIN</t>
+  </si>
+  <si>
+    <t>Méline</t>
+  </si>
+  <si>
+    <t>HARDY</t>
+  </si>
+  <si>
+    <t>HAYE</t>
+  </si>
+  <si>
+    <t>Calie</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>HELAINE</t>
+  </si>
+  <si>
+    <t>Juliette</t>
+  </si>
+  <si>
+    <t>HENNEQUIN</t>
+  </si>
+  <si>
+    <t>HERARD</t>
+  </si>
+  <si>
+    <t>Valentin</t>
+  </si>
+  <si>
+    <t>HERBERT</t>
+  </si>
+  <si>
+    <t>Mya</t>
+  </si>
+  <si>
+    <t>HERMAIZE</t>
+  </si>
+  <si>
+    <t>HERSENT</t>
+  </si>
+  <si>
+    <t>Alix</t>
+  </si>
+  <si>
+    <t>HERVE</t>
+  </si>
+  <si>
+    <t>Gabin</t>
+  </si>
+  <si>
+    <t>HONORE</t>
+  </si>
+  <si>
+    <t>Lison</t>
+  </si>
+  <si>
+    <t>HOREL</t>
+  </si>
+  <si>
+    <t>HOUILLOT</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>HUARD</t>
+  </si>
+  <si>
+    <t>Timothé</t>
+  </si>
+  <si>
+    <t>Nolhann</t>
+  </si>
+  <si>
+    <t>HUBERT</t>
+  </si>
+  <si>
+    <t>Donovann</t>
+  </si>
+  <si>
+    <t>HUET</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>HULIN</t>
+  </si>
+  <si>
+    <t>HUREL</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>JOHNS-LEMOUSSU</t>
+  </si>
+  <si>
+    <t>JOLIVET</t>
+  </si>
+  <si>
+    <t>Ianis</t>
+  </si>
+  <si>
+    <t>Maëlle</t>
+  </si>
+  <si>
+    <t>JOUENNE</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>JUIN</t>
+  </si>
+  <si>
+    <t>Léopold</t>
+  </si>
+  <si>
+    <t>JULIEN</t>
+  </si>
+  <si>
+    <t>Coline</t>
+  </si>
+  <si>
+    <t>JULIENNE</t>
+  </si>
+  <si>
+    <t>Lilie</t>
+  </si>
+  <si>
+    <t>JUMELIN</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>KENNEDY</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>LAFLEUR</t>
+  </si>
+  <si>
+    <t>Stoyan</t>
+  </si>
+  <si>
+    <t>LAIR</t>
+  </si>
+  <si>
+    <t>LALOI LEBLATIER</t>
+  </si>
+  <si>
+    <t>Iban</t>
+  </si>
+  <si>
+    <t>LAMARCHE</t>
+  </si>
+  <si>
+    <t>LAMORT</t>
+  </si>
+  <si>
+    <t>LAMY</t>
+  </si>
+  <si>
+    <t>LANOE</t>
+  </si>
+  <si>
+    <t>Léonie</t>
+  </si>
+  <si>
+    <t>LAPLANCHE</t>
+  </si>
+  <si>
+    <t>LARNAUD</t>
+  </si>
+  <si>
+    <t>Adèle</t>
+  </si>
+  <si>
+    <t>LAROUTE</t>
+  </si>
+  <si>
+    <t>LE BLOHIC</t>
+  </si>
+  <si>
+    <t>LE CLERC</t>
+  </si>
+  <si>
+    <t>Elsa</t>
+  </si>
+  <si>
+    <t>LE COQ  BAZIRE</t>
+  </si>
+  <si>
+    <t>Sohan</t>
+  </si>
+  <si>
+    <t>LE GALL</t>
+  </si>
+  <si>
+    <t>LE ROUX</t>
+  </si>
+  <si>
+    <t>LE ROYER</t>
+  </si>
+  <si>
+    <t>LEBEHOT</t>
+  </si>
+  <si>
+    <t>Lilou</t>
+  </si>
+  <si>
+    <t>LEBEURIER</t>
+  </si>
+  <si>
+    <t>Ambre</t>
+  </si>
+  <si>
+    <t>LEBLATIER</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>LEBRETON</t>
+  </si>
+  <si>
+    <t>Donatien</t>
+  </si>
+  <si>
+    <t>LECELLIER</t>
+  </si>
+  <si>
+    <t>LECHARTIER</t>
+  </si>
+  <si>
+    <t>LECHAT</t>
+  </si>
+  <si>
+    <t>Océane</t>
+  </si>
+  <si>
+    <t>LECLER</t>
+  </si>
+  <si>
+    <t>Anouck</t>
+  </si>
+  <si>
+    <t>LECLERC</t>
+  </si>
+  <si>
+    <t>Leïto</t>
+  </si>
+  <si>
+    <t>LECOURT</t>
+  </si>
+  <si>
+    <t>LEDO LEGENTIL</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>LEFEVRE</t>
+  </si>
+  <si>
+    <t>LEFRANC PATARD</t>
+  </si>
+  <si>
+    <t>LEGATELOIS</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>LEGENDRE</t>
+  </si>
+  <si>
+    <t>LEGILLON</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
+    <t>LEGOUPIL</t>
+  </si>
+  <si>
+    <t>LEGRIX</t>
+  </si>
+  <si>
+    <t>LEGROS</t>
+  </si>
+  <si>
+    <t>Maëliss</t>
+  </si>
+  <si>
+    <t>Erwan</t>
+  </si>
+  <si>
+    <t>LEGUILLOCHET TABUCE</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>LELOUP</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>LEMERCIER</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>LEMETAYER</t>
+  </si>
+  <si>
+    <t>Matthis</t>
+  </si>
+  <si>
+    <t>LEMOINE</t>
+  </si>
+  <si>
+    <t>Léon</t>
+  </si>
+  <si>
+    <t>LEMONNIER</t>
+  </si>
+  <si>
+    <t>Mallorie</t>
+  </si>
+  <si>
+    <t>LEMOUSSU CHENU</t>
+  </si>
+  <si>
+    <t>Gwendoline</t>
+  </si>
+  <si>
+    <t>LEMOUSSU</t>
+  </si>
+  <si>
+    <t>Emilien</t>
+  </si>
+  <si>
+    <t>LENOIR</t>
+  </si>
+  <si>
+    <t>LENORMAND</t>
+  </si>
+  <si>
+    <t>LENOT</t>
+  </si>
+  <si>
+    <t>Maylou</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>LEPAINTEUR</t>
+  </si>
+  <si>
+    <t>LEPETIT</t>
+  </si>
+  <si>
+    <t>Izac</t>
+  </si>
+  <si>
+    <t>LEREE</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>LEROUX</t>
+  </si>
+  <si>
+    <t>Loïs</t>
+  </si>
+  <si>
+    <t>LEROY</t>
+  </si>
+  <si>
+    <t>Justine</t>
+  </si>
+  <si>
+    <t>LESIEUR</t>
+  </si>
+  <si>
+    <t>Gatien</t>
+  </si>
+  <si>
+    <t>LETENDRE</t>
+  </si>
+  <si>
+    <t>Manon</t>
+  </si>
+  <si>
+    <t>LETROUIT</t>
+  </si>
+  <si>
+    <t>LETROUVE</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>LEVEILLE</t>
+  </si>
+  <si>
+    <t>LEVEQUE</t>
+  </si>
+  <si>
+    <t>LEVESQUE</t>
+  </si>
+  <si>
+    <t>Ylan</t>
+  </si>
+  <si>
+    <t>LIENART</t>
+  </si>
+  <si>
+    <t>LODE</t>
+  </si>
+  <si>
+    <t>Ninon</t>
+  </si>
+  <si>
+    <t>LOIVEL--BELHOMME</t>
+  </si>
+  <si>
+    <t>LOQUE</t>
+  </si>
+  <si>
+    <t>Lenzo</t>
+  </si>
+  <si>
+    <t>LOTHELIER</t>
+  </si>
+  <si>
+    <t>LOUBRY</t>
+  </si>
+  <si>
+    <t>LOUIS</t>
+  </si>
+  <si>
+    <t>Maylie</t>
+  </si>
+  <si>
+    <t>LOYER</t>
+  </si>
+  <si>
+    <t>Ethane</t>
+  </si>
+  <si>
+    <t>LUDJET</t>
+  </si>
+  <si>
+    <t>Thimoté</t>
+  </si>
+  <si>
+    <t>MACE</t>
+  </si>
+  <si>
+    <t>MAHLER</t>
+  </si>
+  <si>
+    <t>Guilhem</t>
+  </si>
+  <si>
+    <t>MAILLARD</t>
+  </si>
+  <si>
+    <t>Daryl</t>
+  </si>
+  <si>
+    <t>MANCEL</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
+    <t>MANGIN</t>
+  </si>
+  <si>
+    <t>MANIVEL</t>
+  </si>
+  <si>
+    <t>MARCELLE</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>MARIE DIT DINARD</t>
+  </si>
+  <si>
+    <t>MARIE</t>
+  </si>
+  <si>
+    <t>MARION</t>
+  </si>
+  <si>
+    <t>MARIVINGT</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>MARONET</t>
+  </si>
+  <si>
+    <t>MARSAIS--AUBRY</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>MARSEAULT</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>Julyann</t>
+  </si>
+  <si>
+    <t>MAUDUIT</t>
+  </si>
+  <si>
+    <t>Lyne</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>MAUNOURY</t>
+  </si>
+  <si>
+    <t>MAUVIEL</t>
+  </si>
+  <si>
+    <t>MELAERT</t>
+  </si>
+  <si>
+    <t>MENARD</t>
+  </si>
+  <si>
+    <t>MERCIER - DUMONT</t>
+  </si>
+  <si>
+    <t>Céleste</t>
+  </si>
+  <si>
+    <t>MERCIER DUMONT</t>
+  </si>
+  <si>
+    <t>MEYER</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>MIAADI</t>
+  </si>
+  <si>
+    <t>Bertille</t>
+  </si>
+  <si>
+    <t>MICHEL</t>
+  </si>
+  <si>
+    <t>Eliott</t>
+  </si>
+  <si>
+    <t>MIGNOT</t>
+  </si>
+  <si>
+    <t>Garance</t>
+  </si>
+  <si>
+    <t>MONDIN</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>MORAZIN ROBIN</t>
+  </si>
+  <si>
+    <t>Apauline</t>
+  </si>
+  <si>
+    <t>MOREL</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>May Line</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>MORICE</t>
+  </si>
+  <si>
+    <t>MORIN</t>
+  </si>
+  <si>
+    <t>MOTTIN</t>
+  </si>
+  <si>
+    <t>Pierre-Clément</t>
+  </si>
+  <si>
+    <t>MOULIN</t>
+  </si>
+  <si>
+    <t>MURIEL</t>
+  </si>
+  <si>
+    <t>Léonard</t>
+  </si>
+  <si>
+    <t>MURIS</t>
+  </si>
+  <si>
+    <t>NAJARRO</t>
+  </si>
+  <si>
+    <t>Ilyès</t>
+  </si>
+  <si>
+    <t>NAKHIL</t>
+  </si>
+  <si>
+    <t>NATU</t>
+  </si>
+  <si>
+    <t>Romaric</t>
+  </si>
+  <si>
+    <t>NICOLLE</t>
+  </si>
+  <si>
+    <t>Laetitia</t>
+  </si>
+  <si>
+    <t>NKELELE</t>
+  </si>
+  <si>
+    <t>Mathilde</t>
+  </si>
+  <si>
+    <t>NOBILET</t>
+  </si>
+  <si>
+    <t>Astrid</t>
+  </si>
+  <si>
+    <t>NOCQUET</t>
+  </si>
+  <si>
+    <t>OLIVIER</t>
+  </si>
+  <si>
+    <t>Maritza</t>
+  </si>
+  <si>
+    <t>OROPEZA</t>
+  </si>
+  <si>
+    <t>OZOUF</t>
+  </si>
+  <si>
+    <t>Noëlyne</t>
+  </si>
+  <si>
+    <t>PAINBLANC</t>
+  </si>
+  <si>
+    <t>PARANT</t>
+  </si>
+  <si>
+    <t>PATEY</t>
+  </si>
+  <si>
+    <t>PAYSANT</t>
+  </si>
+  <si>
+    <t>PELCHAT</t>
+  </si>
+  <si>
+    <t>Edène</t>
+  </si>
+  <si>
+    <t>PEME FILA--LAURET</t>
+  </si>
+  <si>
+    <t>PENNEC</t>
+  </si>
+  <si>
+    <t>Mélina</t>
+  </si>
+  <si>
+    <t>PEPIN</t>
+  </si>
+  <si>
+    <t>PERCEVAULT</t>
+  </si>
+  <si>
+    <t>PERIAUX</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>PERRAT</t>
+  </si>
+  <si>
+    <t>Elvina</t>
+  </si>
+  <si>
+    <t>PERRON</t>
+  </si>
+  <si>
+    <t>PESTEL</t>
+  </si>
+  <si>
+    <t>PETIT</t>
+  </si>
+  <si>
+    <t>PICQUENOT</t>
+  </si>
+  <si>
+    <t>PIGEON</t>
+  </si>
+  <si>
+    <t>Matti</t>
+  </si>
+  <si>
+    <t>PILLEVESSE</t>
+  </si>
+  <si>
+    <t>Lyla</t>
+  </si>
+  <si>
+    <t>PIQUOIS- OUEPRAOGO</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>PIQUOIS-OUEDRAOGO</t>
+  </si>
+  <si>
+    <t>Norah</t>
+  </si>
+  <si>
+    <t>PLATTIER</t>
+  </si>
+  <si>
+    <t>Nicodème</t>
+  </si>
+  <si>
+    <t>PLOMBIN</t>
+  </si>
+  <si>
+    <t>POIRIER</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>POUPINET</t>
+  </si>
+  <si>
+    <t>PRIETO-GRENIER</t>
+  </si>
+  <si>
+    <t>PRIOUX</t>
+  </si>
+  <si>
+    <t>Lounis</t>
+  </si>
+  <si>
+    <t>PRUNIER</t>
+  </si>
+  <si>
+    <t>PSZCZOLKOWSKI--BESNARD</t>
+  </si>
+  <si>
+    <t>QUINETTE</t>
+  </si>
+  <si>
+    <t>RANCHIN</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>RAULT</t>
+  </si>
+  <si>
+    <t>RENARD</t>
+  </si>
+  <si>
+    <t>RENAULT</t>
+  </si>
+  <si>
+    <t>Ilona</t>
+  </si>
+  <si>
+    <t>RESTOUT</t>
+  </si>
+  <si>
+    <t>Inès</t>
+  </si>
+  <si>
+    <t>REUZEAU</t>
+  </si>
+  <si>
+    <t>Bastien</t>
+  </si>
+  <si>
+    <t>RICOUX</t>
+  </si>
+  <si>
+    <t>RIVALAIN</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>ROBERT</t>
+  </si>
+  <si>
+    <t>Rosy</t>
+  </si>
+  <si>
+    <t>ROBLOT</t>
+  </si>
+  <si>
+    <t>Ferdinand</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ-MARQUEZ</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>ROLLET</t>
+  </si>
+  <si>
+    <t>ROMUALD</t>
+  </si>
+  <si>
+    <t>ROUAULT-DELAUNAY</t>
+  </si>
+  <si>
+    <t>Yoline</t>
+  </si>
+  <si>
+    <t>ROUSSEAU</t>
+  </si>
+  <si>
+    <t>Emilie</t>
+  </si>
+  <si>
+    <t>ROUSSEL</t>
+  </si>
+  <si>
+    <t>Nissi</t>
+  </si>
+  <si>
+    <t>ROUSSET DE PINA DE SAINT DIDIER</t>
+  </si>
+  <si>
+    <t>ROUXEL</t>
+  </si>
+  <si>
+    <t>ROUZEE</t>
+  </si>
+  <si>
+    <t>Alwena</t>
+  </si>
+  <si>
+    <t>ROY</t>
+  </si>
+  <si>
+    <t>ROYER</t>
+  </si>
+  <si>
+    <t>RUAULD</t>
+  </si>
+  <si>
+    <t>Lucien</t>
+  </si>
+  <si>
+    <t>SALIOT</t>
+  </si>
+  <si>
+    <t>Noéline</t>
+  </si>
+  <si>
+    <t>SALLARD</t>
+  </si>
+  <si>
+    <t>SANTIARD</t>
+  </si>
+  <si>
+    <t>Matthieu</t>
+  </si>
+  <si>
+    <t>SAUBANAIRE</t>
+  </si>
+  <si>
+    <t>SCHWICKERT</t>
+  </si>
+  <si>
+    <t>SERRANT</t>
+  </si>
+  <si>
+    <t>SERRE</t>
+  </si>
+  <si>
+    <t>Amy Yasmine</t>
+  </si>
+  <si>
+    <t>SIDIBE</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>SIMON</t>
+  </si>
+  <si>
+    <t>Timaël</t>
+  </si>
+  <si>
+    <t>SIRRE</t>
+  </si>
+  <si>
+    <t>SPORTES</t>
+  </si>
+  <si>
+    <t>SULLY</t>
+  </si>
+  <si>
+    <t>Milà</t>
+  </si>
+  <si>
+    <t>TAVERNIER</t>
+  </si>
+  <si>
+    <t>TESTE</t>
+  </si>
+  <si>
+    <t>TEUTSCH</t>
+  </si>
+  <si>
+    <t>THEAULT</t>
+  </si>
+  <si>
+    <t>Léane</t>
+  </si>
+  <si>
+    <t>THEBAULT</t>
+  </si>
+  <si>
+    <t>Laurine</t>
+  </si>
+  <si>
+    <t>Noélie</t>
+  </si>
+  <si>
+    <t>THIEULENT</t>
+  </si>
+  <si>
+    <t>François</t>
+  </si>
+  <si>
+    <t>THUAULT</t>
+  </si>
+  <si>
+    <t>Myralem</t>
+  </si>
+  <si>
+    <t>TIROUMALE</t>
+  </si>
+  <si>
+    <t>TOLLERON--POCAS FIGUEIREDO</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>TOUCHAIS</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
+  </si>
+  <si>
+    <t>TOUROU</t>
+  </si>
+  <si>
+    <t>TOUROUL</t>
+  </si>
+  <si>
+    <t>Lorena</t>
+  </si>
+  <si>
+    <t>TOURRES</t>
+  </si>
+  <si>
+    <t>TRAVERT</t>
+  </si>
+  <si>
+    <t>Lilwenn</t>
+  </si>
+  <si>
+    <t>TRIPIED</t>
+  </si>
+  <si>
+    <t>TROCHON</t>
+  </si>
+  <si>
+    <t>TRUFFERT</t>
+  </si>
+  <si>
+    <t>Hadrien</t>
+  </si>
+  <si>
+    <t>TRUONG</t>
+  </si>
+  <si>
+    <t>TUAUX</t>
+  </si>
+  <si>
+    <t>TUMOINE</t>
+  </si>
+  <si>
+    <t>VALLEE</t>
+  </si>
+  <si>
+    <t>VEISLINGER</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>VERNAULT</t>
+  </si>
+  <si>
+    <t>Virgile</t>
+  </si>
+  <si>
+    <t>VERPILLAT</t>
+  </si>
+  <si>
+    <t>Kenzo</t>
+  </si>
+  <si>
+    <t>VERRON</t>
+  </si>
+  <si>
+    <t>VERSCHOOTE</t>
+  </si>
+  <si>
+    <t>VEUGEOIS</t>
+  </si>
+  <si>
+    <t>VIALLET</t>
+  </si>
+  <si>
+    <t>Johanne</t>
+  </si>
+  <si>
+    <t>VIGO</t>
+  </si>
+  <si>
+    <t>VIGOT</t>
+  </si>
+  <si>
+    <t>Endric</t>
+  </si>
+  <si>
+    <t>VITALIS</t>
+  </si>
+  <si>
+    <t>Anne-Sophie</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>Benoît</t>
+  </si>
+  <si>
+    <t>WIART</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>WREN</t>
+  </si>
+  <si>
+    <t>YVON</t>
   </si>
 </sst>
 </file>
@@ -417,7 +2607,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +2709,6650 @@
       </c>
       <c r="D7"/>
       <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" t="s">
+        <v>189</v>
+      </c>
+      <c r="C108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>194</v>
+      </c>
+      <c r="B112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>205</v>
+      </c>
+      <c r="B119" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" t="s">
+        <v>211</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>212</v>
+      </c>
+      <c r="B124" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>215</v>
+      </c>
+      <c r="B126" t="s">
+        <v>216</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" t="s">
+        <v>222</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>223</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" t="s">
+        <v>225</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>178</v>
+      </c>
+      <c r="B132" t="s">
+        <v>226</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" t="s">
+        <v>228</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>229</v>
+      </c>
+      <c r="B134" t="s">
+        <v>230</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>231</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>232</v>
+      </c>
+      <c r="B136" t="s">
+        <v>233</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>234</v>
+      </c>
+      <c r="B137" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>236</v>
+      </c>
+      <c r="B138" t="s">
+        <v>237</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>238</v>
+      </c>
+      <c r="B139" t="s">
+        <v>239</v>
+      </c>
+      <c r="C139" t="s">
+        <v>240</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>111</v>
+      </c>
+      <c r="B140" t="s">
+        <v>241</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141" t="s">
+        <v>243</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>244</v>
+      </c>
+      <c r="B142" t="s">
+        <v>245</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>246</v>
+      </c>
+      <c r="B143" t="s">
+        <v>247</v>
+      </c>
+      <c r="C143" t="s">
+        <v>240</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>248</v>
+      </c>
+      <c r="B144" t="s">
+        <v>249</v>
+      </c>
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>250</v>
+      </c>
+      <c r="B145" t="s">
+        <v>251</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>252</v>
+      </c>
+      <c r="B146" t="s">
+        <v>253</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>93</v>
+      </c>
+      <c r="B147" t="s">
+        <v>254</v>
+      </c>
+      <c r="C147" t="s">
+        <v>39</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>255</v>
+      </c>
+      <c r="B148" t="s">
+        <v>256</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>257</v>
+      </c>
+      <c r="B149" t="s">
+        <v>258</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150" t="s">
+        <v>260</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>261</v>
+      </c>
+      <c r="B151" t="s">
+        <v>262</v>
+      </c>
+      <c r="C151" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>263</v>
+      </c>
+      <c r="B152" t="s">
+        <v>262</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>264</v>
+      </c>
+      <c r="B153" t="s">
+        <v>265</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>266</v>
+      </c>
+      <c r="B154" t="s">
+        <v>267</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>268</v>
+      </c>
+      <c r="B155" t="s">
+        <v>269</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" t="s">
+        <v>271</v>
+      </c>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>140</v>
+      </c>
+      <c r="B157" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>273</v>
+      </c>
+      <c r="B158" t="s">
+        <v>274</v>
+      </c>
+      <c r="C158" t="s">
+        <v>240</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>275</v>
+      </c>
+      <c r="B159" t="s">
+        <v>276</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160" t="s">
+        <v>276</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160"/>
+      <c r="E160"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161"/>
+      <c r="E161"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>130</v>
+      </c>
+      <c r="B162" t="s">
+        <v>278</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>204</v>
+      </c>
+      <c r="B163" t="s">
+        <v>279</v>
+      </c>
+      <c r="C163" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>280</v>
+      </c>
+      <c r="B164" t="s">
+        <v>281</v>
+      </c>
+      <c r="C164" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>282</v>
+      </c>
+      <c r="B165" t="s">
+        <v>281</v>
+      </c>
+      <c r="C165" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>283</v>
+      </c>
+      <c r="B166" t="s">
+        <v>284</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166"/>
+      <c r="E166"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>285</v>
+      </c>
+      <c r="B167" t="s">
+        <v>286</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167"/>
+      <c r="E167"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>287</v>
+      </c>
+      <c r="B168" t="s">
+        <v>286</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>288</v>
+      </c>
+      <c r="B169" t="s">
+        <v>289</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169"/>
+      <c r="E169"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>164</v>
+      </c>
+      <c r="B170" t="s">
+        <v>290</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>291</v>
+      </c>
+      <c r="B171" t="s">
+        <v>292</v>
+      </c>
+      <c r="C171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171"/>
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>150</v>
+      </c>
+      <c r="B172" t="s">
+        <v>292</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172"/>
+      <c r="E172"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>293</v>
+      </c>
+      <c r="B173" t="s">
+        <v>294</v>
+      </c>
+      <c r="C173" t="s">
+        <v>295</v>
+      </c>
+      <c r="D173"/>
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>296</v>
+      </c>
+      <c r="B174" t="s">
+        <v>297</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>298</v>
+      </c>
+      <c r="B175" t="s">
+        <v>299</v>
+      </c>
+      <c r="C175" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175"/>
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>300</v>
+      </c>
+      <c r="B176" t="s">
+        <v>301</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176"/>
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>158</v>
+      </c>
+      <c r="B177" t="s">
+        <v>302</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177"/>
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>303</v>
+      </c>
+      <c r="B178" t="s">
+        <v>304</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178"/>
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>305</v>
+      </c>
+      <c r="B179" t="s">
+        <v>306</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179"/>
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>307</v>
+      </c>
+      <c r="B180" t="s">
+        <v>308</v>
+      </c>
+      <c r="C180" t="s">
+        <v>113</v>
+      </c>
+      <c r="D180"/>
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>309</v>
+      </c>
+      <c r="B181" t="s">
+        <v>310</v>
+      </c>
+      <c r="C181" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181"/>
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>311</v>
+      </c>
+      <c r="B182" t="s">
+        <v>312</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182"/>
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>313</v>
+      </c>
+      <c r="B183" t="s">
+        <v>314</v>
+      </c>
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183"/>
+      <c r="E183"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>315</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184"/>
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>316</v>
+      </c>
+      <c r="B185" t="s">
+        <v>317</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185"/>
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>268</v>
+      </c>
+      <c r="B186" t="s">
+        <v>317</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186"/>
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>257</v>
+      </c>
+      <c r="B187" t="s">
+        <v>318</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187"/>
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>319</v>
+      </c>
+      <c r="B188" t="s">
+        <v>320</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188"/>
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>321</v>
+      </c>
+      <c r="B189" t="s">
+        <v>322</v>
+      </c>
+      <c r="C189" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189"/>
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>323</v>
+      </c>
+      <c r="B190" t="s">
+        <v>324</v>
+      </c>
+      <c r="C190" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190"/>
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>156</v>
+      </c>
+      <c r="B191" t="s">
+        <v>325</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191"/>
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>326</v>
+      </c>
+      <c r="B192" t="s">
+        <v>327</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192"/>
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>328</v>
+      </c>
+      <c r="B193" t="s">
+        <v>327</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>329</v>
+      </c>
+      <c r="B194" t="s">
+        <v>330</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194"/>
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>77</v>
+      </c>
+      <c r="B195" t="s">
+        <v>330</v>
+      </c>
+      <c r="C195" t="s">
+        <v>36</v>
+      </c>
+      <c r="D195"/>
+      <c r="E195"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>331</v>
+      </c>
+      <c r="B196" t="s">
+        <v>330</v>
+      </c>
+      <c r="C196" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196"/>
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>332</v>
+      </c>
+      <c r="B197" t="s">
+        <v>333</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197"/>
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>334</v>
+      </c>
+      <c r="B198" t="s">
+        <v>335</v>
+      </c>
+      <c r="C198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198"/>
+      <c r="E198"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>111</v>
+      </c>
+      <c r="B199" t="s">
+        <v>336</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199"/>
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200" t="s">
+        <v>337</v>
+      </c>
+      <c r="C200" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200"/>
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>268</v>
+      </c>
+      <c r="B201" t="s">
+        <v>338</v>
+      </c>
+      <c r="C201" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201"/>
+      <c r="E201"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>101</v>
+      </c>
+      <c r="B202" t="s">
+        <v>339</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202"/>
+      <c r="E202"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>340</v>
+      </c>
+      <c r="B203" t="s">
+        <v>341</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203"/>
+      <c r="E203"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>194</v>
+      </c>
+      <c r="B204" t="s">
+        <v>342</v>
+      </c>
+      <c r="C204" t="s">
+        <v>23</v>
+      </c>
+      <c r="D204"/>
+      <c r="E204"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>343</v>
+      </c>
+      <c r="B205" t="s">
+        <v>344</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205"/>
+      <c r="E205"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>345</v>
+      </c>
+      <c r="B206" t="s">
+        <v>346</v>
+      </c>
+      <c r="C206" t="s">
+        <v>240</v>
+      </c>
+      <c r="D206"/>
+      <c r="E206"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>347</v>
+      </c>
+      <c r="B207" t="s">
+        <v>348</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207"/>
+      <c r="E207"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>349</v>
+      </c>
+      <c r="B208" t="s">
+        <v>350</v>
+      </c>
+      <c r="C208" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>351</v>
+      </c>
+      <c r="B209" t="s">
+        <v>352</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209"/>
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>353</v>
+      </c>
+      <c r="B210" t="s">
+        <v>354</v>
+      </c>
+      <c r="C210" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210"/>
+      <c r="E210"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>355</v>
+      </c>
+      <c r="B211" t="s">
+        <v>354</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211"/>
+      <c r="E211"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>356</v>
+      </c>
+      <c r="B212" t="s">
+        <v>357</v>
+      </c>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>358</v>
+      </c>
+      <c r="B213" t="s">
+        <v>357</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213"/>
+      <c r="E213"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>130</v>
+      </c>
+      <c r="B214" t="s">
+        <v>359</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214"/>
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>360</v>
+      </c>
+      <c r="B215" t="s">
+        <v>361</v>
+      </c>
+      <c r="C215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215"/>
+      <c r="E215"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>362</v>
+      </c>
+      <c r="B216" t="s">
+        <v>363</v>
+      </c>
+      <c r="C216" t="s">
+        <v>23</v>
+      </c>
+      <c r="D216"/>
+      <c r="E216"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>364</v>
+      </c>
+      <c r="B217" t="s">
+        <v>365</v>
+      </c>
+      <c r="C217" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217"/>
+      <c r="E217"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>136</v>
+      </c>
+      <c r="B218" t="s">
+        <v>365</v>
+      </c>
+      <c r="C218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218"/>
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>366</v>
+      </c>
+      <c r="B219" t="s">
+        <v>367</v>
+      </c>
+      <c r="C219" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219"/>
+      <c r="E219"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>368</v>
+      </c>
+      <c r="B220" t="s">
+        <v>369</v>
+      </c>
+      <c r="C220" t="s">
+        <v>17</v>
+      </c>
+      <c r="D220"/>
+      <c r="E220"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>370</v>
+      </c>
+      <c r="B221" t="s">
+        <v>371</v>
+      </c>
+      <c r="C221" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221"/>
+      <c r="E221"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>372</v>
+      </c>
+      <c r="B222" t="s">
+        <v>371</v>
+      </c>
+      <c r="C222" t="s">
+        <v>23</v>
+      </c>
+      <c r="D222"/>
+      <c r="E222"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>33</v>
+      </c>
+      <c r="B223" t="s">
+        <v>373</v>
+      </c>
+      <c r="C223" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223"/>
+      <c r="E223"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>26</v>
+      </c>
+      <c r="B224" t="s">
+        <v>373</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224"/>
+      <c r="E224"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>111</v>
+      </c>
+      <c r="B225" t="s">
+        <v>374</v>
+      </c>
+      <c r="C225" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225"/>
+      <c r="E225"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>375</v>
+      </c>
+      <c r="B226" t="s">
+        <v>376</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226"/>
+      <c r="E226"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>130</v>
+      </c>
+      <c r="B227" t="s">
+        <v>377</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227"/>
+      <c r="E227"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>378</v>
+      </c>
+      <c r="B228" t="s">
+        <v>379</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228"/>
+      <c r="E228"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>380</v>
+      </c>
+      <c r="B229" t="s">
+        <v>381</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229"/>
+      <c r="E229"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>382</v>
+      </c>
+      <c r="B230" t="s">
+        <v>383</v>
+      </c>
+      <c r="C230" t="s">
+        <v>17</v>
+      </c>
+      <c r="D230"/>
+      <c r="E230"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>178</v>
+      </c>
+      <c r="B231" t="s">
+        <v>384</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231"/>
+      <c r="E231"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>385</v>
+      </c>
+      <c r="B232" t="s">
+        <v>384</v>
+      </c>
+      <c r="C232" t="s">
+        <v>36</v>
+      </c>
+      <c r="D232"/>
+      <c r="E232"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>349</v>
+      </c>
+      <c r="B233" t="s">
+        <v>386</v>
+      </c>
+      <c r="C233" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233"/>
+      <c r="E233"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>156</v>
+      </c>
+      <c r="B234" t="s">
+        <v>386</v>
+      </c>
+      <c r="C234" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234"/>
+      <c r="E234"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>387</v>
+      </c>
+      <c r="B235" t="s">
+        <v>388</v>
+      </c>
+      <c r="C235" t="s">
+        <v>23</v>
+      </c>
+      <c r="D235"/>
+      <c r="E235"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>16</v>
+      </c>
+      <c r="B236" t="s">
+        <v>389</v>
+      </c>
+      <c r="C236" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236"/>
+      <c r="E236"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>390</v>
+      </c>
+      <c r="B237" t="s">
+        <v>391</v>
+      </c>
+      <c r="C237" t="s">
+        <v>23</v>
+      </c>
+      <c r="D237"/>
+      <c r="E237"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>392</v>
+      </c>
+      <c r="B238" t="s">
+        <v>393</v>
+      </c>
+      <c r="C238" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238"/>
+      <c r="E238"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>394</v>
+      </c>
+      <c r="B239" t="s">
+        <v>395</v>
+      </c>
+      <c r="C239" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239"/>
+      <c r="E239"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>93</v>
+      </c>
+      <c r="B240" t="s">
+        <v>396</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240"/>
+      <c r="E240"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>397</v>
+      </c>
+      <c r="B241" t="s">
+        <v>396</v>
+      </c>
+      <c r="C241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241"/>
+      <c r="E241"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>176</v>
+      </c>
+      <c r="B242" t="s">
+        <v>398</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242"/>
+      <c r="E242"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>399</v>
+      </c>
+      <c r="B243" t="s">
+        <v>398</v>
+      </c>
+      <c r="C243" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243"/>
+      <c r="E243"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>400</v>
+      </c>
+      <c r="B244" t="s">
+        <v>401</v>
+      </c>
+      <c r="C244"/>
+      <c r="D244"/>
+      <c r="E244"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>402</v>
+      </c>
+      <c r="B245" t="s">
+        <v>403</v>
+      </c>
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245"/>
+      <c r="E245"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>404</v>
+      </c>
+      <c r="B246" t="s">
+        <v>405</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246"/>
+      <c r="E246"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>125</v>
+      </c>
+      <c r="B247" t="s">
+        <v>405</v>
+      </c>
+      <c r="C247" t="s">
+        <v>23</v>
+      </c>
+      <c r="D247"/>
+      <c r="E247"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>202</v>
+      </c>
+      <c r="B248" t="s">
+        <v>406</v>
+      </c>
+      <c r="C248" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248"/>
+      <c r="E248"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>407</v>
+      </c>
+      <c r="B249" t="s">
+        <v>408</v>
+      </c>
+      <c r="C249" t="s">
+        <v>23</v>
+      </c>
+      <c r="D249"/>
+      <c r="E249"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>101</v>
+      </c>
+      <c r="B250" t="s">
+        <v>409</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250"/>
+      <c r="E250"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>410</v>
+      </c>
+      <c r="B251" t="s">
+        <v>409</v>
+      </c>
+      <c r="C251" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251"/>
+      <c r="E251"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>411</v>
+      </c>
+      <c r="B252" t="s">
+        <v>412</v>
+      </c>
+      <c r="C252" t="s">
+        <v>23</v>
+      </c>
+      <c r="D252"/>
+      <c r="E252"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>413</v>
+      </c>
+      <c r="B253" t="s">
+        <v>414</v>
+      </c>
+      <c r="C253" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253"/>
+      <c r="E253"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>111</v>
+      </c>
+      <c r="B254" t="s">
+        <v>414</v>
+      </c>
+      <c r="C254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254"/>
+      <c r="E254"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>415</v>
+      </c>
+      <c r="B255" t="s">
+        <v>416</v>
+      </c>
+      <c r="C255" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255"/>
+      <c r="E255"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>417</v>
+      </c>
+      <c r="B256" t="s">
+        <v>418</v>
+      </c>
+      <c r="C256" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256"/>
+      <c r="E256"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>419</v>
+      </c>
+      <c r="B257" t="s">
+        <v>420</v>
+      </c>
+      <c r="C257" t="s">
+        <v>17</v>
+      </c>
+      <c r="D257"/>
+      <c r="E257"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>421</v>
+      </c>
+      <c r="B258" t="s">
+        <v>422</v>
+      </c>
+      <c r="C258" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258"/>
+      <c r="E258"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>423</v>
+      </c>
+      <c r="B259" t="s">
+        <v>424</v>
+      </c>
+      <c r="C259" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259"/>
+      <c r="E259"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>425</v>
+      </c>
+      <c r="B260" t="s">
+        <v>426</v>
+      </c>
+      <c r="C260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260"/>
+      <c r="E260"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>257</v>
+      </c>
+      <c r="B261" t="s">
+        <v>427</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261"/>
+      <c r="E261"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>428</v>
+      </c>
+      <c r="B262" t="s">
+        <v>429</v>
+      </c>
+      <c r="C262" t="s">
+        <v>20</v>
+      </c>
+      <c r="D262"/>
+      <c r="E262"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>298</v>
+      </c>
+      <c r="B263" t="s">
+        <v>429</v>
+      </c>
+      <c r="C263" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263"/>
+      <c r="E263"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>158</v>
+      </c>
+      <c r="B264" t="s">
+        <v>430</v>
+      </c>
+      <c r="C264" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264"/>
+      <c r="E264"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>353</v>
+      </c>
+      <c r="B265" t="s">
+        <v>431</v>
+      </c>
+      <c r="C265" t="s">
+        <v>36</v>
+      </c>
+      <c r="D265"/>
+      <c r="E265"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>158</v>
+      </c>
+      <c r="B266" t="s">
+        <v>431</v>
+      </c>
+      <c r="C266" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266"/>
+      <c r="E266"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>130</v>
+      </c>
+      <c r="B267" t="s">
+        <v>432</v>
+      </c>
+      <c r="C267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267"/>
+      <c r="E267"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>43</v>
+      </c>
+      <c r="B268" t="s">
+        <v>432</v>
+      </c>
+      <c r="C268" t="s">
+        <v>20</v>
+      </c>
+      <c r="D268"/>
+      <c r="E268"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>433</v>
+      </c>
+      <c r="B269" t="s">
+        <v>434</v>
+      </c>
+      <c r="C269" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269"/>
+      <c r="E269"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>347</v>
+      </c>
+      <c r="B270" t="s">
+        <v>435</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270"/>
+      <c r="E270"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>436</v>
+      </c>
+      <c r="B271" t="s">
+        <v>437</v>
+      </c>
+      <c r="C271" t="s">
+        <v>23</v>
+      </c>
+      <c r="D271"/>
+      <c r="E271"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>158</v>
+      </c>
+      <c r="B272" t="s">
+        <v>438</v>
+      </c>
+      <c r="C272" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272"/>
+      <c r="E272"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>385</v>
+      </c>
+      <c r="B273" t="s">
+        <v>439</v>
+      </c>
+      <c r="C273" t="s">
+        <v>113</v>
+      </c>
+      <c r="D273"/>
+      <c r="E273"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>440</v>
+      </c>
+      <c r="B274" t="s">
+        <v>441</v>
+      </c>
+      <c r="C274" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274"/>
+      <c r="E274"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>442</v>
+      </c>
+      <c r="B275" t="s">
+        <v>443</v>
+      </c>
+      <c r="C275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275"/>
+      <c r="E275"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>382</v>
+      </c>
+      <c r="B276" t="s">
+        <v>444</v>
+      </c>
+      <c r="C276" t="s">
+        <v>13</v>
+      </c>
+      <c r="D276"/>
+      <c r="E276"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>332</v>
+      </c>
+      <c r="B277" t="s">
+        <v>444</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277"/>
+      <c r="E277"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>77</v>
+      </c>
+      <c r="B278" t="s">
+        <v>445</v>
+      </c>
+      <c r="C278" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278"/>
+      <c r="E278"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>157</v>
+      </c>
+      <c r="B279" t="s">
+        <v>446</v>
+      </c>
+      <c r="C279" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279"/>
+      <c r="E279"/>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>447</v>
+      </c>
+      <c r="B280" t="s">
+        <v>448</v>
+      </c>
+      <c r="C280" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280"/>
+      <c r="E280"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>449</v>
+      </c>
+      <c r="B281" t="s">
+        <v>450</v>
+      </c>
+      <c r="C281" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281"/>
+      <c r="E281"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>392</v>
+      </c>
+      <c r="B282" t="s">
+        <v>450</v>
+      </c>
+      <c r="C282" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282"/>
+      <c r="E282"/>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>451</v>
+      </c>
+      <c r="B283" t="s">
+        <v>450</v>
+      </c>
+      <c r="C283" t="s">
+        <v>20</v>
+      </c>
+      <c r="D283"/>
+      <c r="E283"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>176</v>
+      </c>
+      <c r="B284" t="s">
+        <v>452</v>
+      </c>
+      <c r="C284" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284"/>
+      <c r="E284"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>453</v>
+      </c>
+      <c r="B285" t="s">
+        <v>454</v>
+      </c>
+      <c r="C285" t="s">
+        <v>36</v>
+      </c>
+      <c r="D285"/>
+      <c r="E285"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>268</v>
+      </c>
+      <c r="B286" t="s">
+        <v>455</v>
+      </c>
+      <c r="C286" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286"/>
+      <c r="E286"/>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>291</v>
+      </c>
+      <c r="B287" t="s">
+        <v>455</v>
+      </c>
+      <c r="C287" t="s">
+        <v>13</v>
+      </c>
+      <c r="D287"/>
+      <c r="E287"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>66</v>
+      </c>
+      <c r="B288" t="s">
+        <v>456</v>
+      </c>
+      <c r="C288" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288"/>
+      <c r="E288"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>457</v>
+      </c>
+      <c r="B289" t="s">
+        <v>458</v>
+      </c>
+      <c r="C289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289"/>
+      <c r="E289"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>347</v>
+      </c>
+      <c r="B290" t="s">
+        <v>458</v>
+      </c>
+      <c r="C290" t="s">
+        <v>7</v>
+      </c>
+      <c r="D290"/>
+      <c r="E290"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>459</v>
+      </c>
+      <c r="B291" t="s">
+        <v>460</v>
+      </c>
+      <c r="C291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291"/>
+      <c r="E291"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>461</v>
+      </c>
+      <c r="B292" t="s">
+        <v>462</v>
+      </c>
+      <c r="C292" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292"/>
+      <c r="E292"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>433</v>
+      </c>
+      <c r="B293" t="s">
+        <v>463</v>
+      </c>
+      <c r="C293" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293"/>
+      <c r="E293"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>464</v>
+      </c>
+      <c r="B294" t="s">
+        <v>465</v>
+      </c>
+      <c r="C294" t="s">
+        <v>23</v>
+      </c>
+      <c r="D294"/>
+      <c r="E294"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>257</v>
+      </c>
+      <c r="B295" t="s">
+        <v>466</v>
+      </c>
+      <c r="C295" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295"/>
+      <c r="E295"/>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>246</v>
+      </c>
+      <c r="B296" t="s">
+        <v>467</v>
+      </c>
+      <c r="C296" t="s">
+        <v>13</v>
+      </c>
+      <c r="D296"/>
+      <c r="E296"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>468</v>
+      </c>
+      <c r="B297" t="s">
+        <v>469</v>
+      </c>
+      <c r="C297" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297"/>
+      <c r="E297"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>151</v>
+      </c>
+      <c r="B298" t="s">
+        <v>470</v>
+      </c>
+      <c r="C298" t="s">
+        <v>23</v>
+      </c>
+      <c r="D298"/>
+      <c r="E298"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>471</v>
+      </c>
+      <c r="B299" t="s">
+        <v>472</v>
+      </c>
+      <c r="C299" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299"/>
+      <c r="E299"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>156</v>
+      </c>
+      <c r="B300" t="s">
+        <v>472</v>
+      </c>
+      <c r="C300" t="s">
+        <v>36</v>
+      </c>
+      <c r="D300"/>
+      <c r="E300"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" t="s">
+        <v>473</v>
+      </c>
+      <c r="C301" t="s">
+        <v>17</v>
+      </c>
+      <c r="D301"/>
+      <c r="E301"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>407</v>
+      </c>
+      <c r="B302" t="s">
+        <v>474</v>
+      </c>
+      <c r="C302" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302"/>
+      <c r="E302"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>475</v>
+      </c>
+      <c r="B303" t="s">
+        <v>474</v>
+      </c>
+      <c r="C303" t="s">
+        <v>10</v>
+      </c>
+      <c r="D303"/>
+      <c r="E303"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>476</v>
+      </c>
+      <c r="B304" t="s">
+        <v>477</v>
+      </c>
+      <c r="C304" t="s">
+        <v>23</v>
+      </c>
+      <c r="D304"/>
+      <c r="E304"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>478</v>
+      </c>
+      <c r="B305" t="s">
+        <v>479</v>
+      </c>
+      <c r="C305" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305"/>
+      <c r="E305"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>480</v>
+      </c>
+      <c r="B306" t="s">
+        <v>481</v>
+      </c>
+      <c r="C306" t="s">
+        <v>23</v>
+      </c>
+      <c r="D306"/>
+      <c r="E306"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>482</v>
+      </c>
+      <c r="B307" t="s">
+        <v>483</v>
+      </c>
+      <c r="C307" t="s">
+        <v>240</v>
+      </c>
+      <c r="D307"/>
+      <c r="E307"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>484</v>
+      </c>
+      <c r="B308" t="s">
+        <v>485</v>
+      </c>
+      <c r="C308" t="s">
+        <v>23</v>
+      </c>
+      <c r="D308"/>
+      <c r="E308"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>486</v>
+      </c>
+      <c r="B309" t="s">
+        <v>487</v>
+      </c>
+      <c r="C309" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309"/>
+      <c r="E309"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>73</v>
+      </c>
+      <c r="B310" t="s">
+        <v>487</v>
+      </c>
+      <c r="C310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310"/>
+      <c r="E310"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>488</v>
+      </c>
+      <c r="B311" t="s">
+        <v>489</v>
+      </c>
+      <c r="C311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311"/>
+      <c r="E311"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>490</v>
+      </c>
+      <c r="B312" t="s">
+        <v>491</v>
+      </c>
+      <c r="C312" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312"/>
+      <c r="E312"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>151</v>
+      </c>
+      <c r="B313" t="s">
+        <v>491</v>
+      </c>
+      <c r="C313" t="s">
+        <v>17</v>
+      </c>
+      <c r="D313"/>
+      <c r="E313"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>492</v>
+      </c>
+      <c r="B314" t="s">
+        <v>493</v>
+      </c>
+      <c r="C314" t="s">
+        <v>23</v>
+      </c>
+      <c r="D314"/>
+      <c r="E314"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>53</v>
+      </c>
+      <c r="B315" t="s">
+        <v>494</v>
+      </c>
+      <c r="C315" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315"/>
+      <c r="E315"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>114</v>
+      </c>
+      <c r="B316" t="s">
+        <v>495</v>
+      </c>
+      <c r="C316" t="s">
+        <v>36</v>
+      </c>
+      <c r="D316"/>
+      <c r="E316"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>496</v>
+      </c>
+      <c r="B317" t="s">
+        <v>497</v>
+      </c>
+      <c r="C317" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317"/>
+      <c r="E317"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>178</v>
+      </c>
+      <c r="B318" t="s">
+        <v>498</v>
+      </c>
+      <c r="C318" t="s">
+        <v>39</v>
+      </c>
+      <c r="D318"/>
+      <c r="E318"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>298</v>
+      </c>
+      <c r="B319" t="s">
+        <v>499</v>
+      </c>
+      <c r="C319" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319"/>
+      <c r="E319"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>500</v>
+      </c>
+      <c r="B320" t="s">
+        <v>501</v>
+      </c>
+      <c r="C320" t="s">
+        <v>17</v>
+      </c>
+      <c r="D320"/>
+      <c r="E320"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>502</v>
+      </c>
+      <c r="B321" t="s">
+        <v>503</v>
+      </c>
+      <c r="C321" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321"/>
+      <c r="E321"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>504</v>
+      </c>
+      <c r="B322" t="s">
+        <v>503</v>
+      </c>
+      <c r="C322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322"/>
+      <c r="E322"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>77</v>
+      </c>
+      <c r="B323" t="s">
+        <v>505</v>
+      </c>
+      <c r="C323" t="s">
+        <v>36</v>
+      </c>
+      <c r="D323"/>
+      <c r="E323"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>130</v>
+      </c>
+      <c r="B324" t="s">
+        <v>505</v>
+      </c>
+      <c r="C324" t="s">
+        <v>7</v>
+      </c>
+      <c r="D324"/>
+      <c r="E324"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>385</v>
+      </c>
+      <c r="B325" t="s">
+        <v>505</v>
+      </c>
+      <c r="C325" t="s">
+        <v>17</v>
+      </c>
+      <c r="D325"/>
+      <c r="E325"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>506</v>
+      </c>
+      <c r="B326" t="s">
+        <v>507</v>
+      </c>
+      <c r="C326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326"/>
+      <c r="E326"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>508</v>
+      </c>
+      <c r="B327" t="s">
+        <v>509</v>
+      </c>
+      <c r="C327" t="s">
+        <v>13</v>
+      </c>
+      <c r="D327"/>
+      <c r="E327"/>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>510</v>
+      </c>
+      <c r="B328" t="s">
+        <v>511</v>
+      </c>
+      <c r="C328" t="s">
+        <v>23</v>
+      </c>
+      <c r="D328"/>
+      <c r="E328"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>33</v>
+      </c>
+      <c r="B329" t="s">
+        <v>512</v>
+      </c>
+      <c r="C329" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329"/>
+      <c r="E329"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>513</v>
+      </c>
+      <c r="B330" t="s">
+        <v>514</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330"/>
+      <c r="E330"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>178</v>
+      </c>
+      <c r="B331" t="s">
+        <v>514</v>
+      </c>
+      <c r="C331" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331"/>
+      <c r="E331"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>77</v>
+      </c>
+      <c r="B332" t="s">
+        <v>515</v>
+      </c>
+      <c r="C332" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332"/>
+      <c r="E332"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>8</v>
+      </c>
+      <c r="B333" t="s">
+        <v>516</v>
+      </c>
+      <c r="C333" t="s">
+        <v>10</v>
+      </c>
+      <c r="D333"/>
+      <c r="E333"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>517</v>
+      </c>
+      <c r="B334" t="s">
+        <v>516</v>
+      </c>
+      <c r="C334" t="s">
+        <v>20</v>
+      </c>
+      <c r="D334"/>
+      <c r="E334"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>390</v>
+      </c>
+      <c r="B335" t="s">
+        <v>518</v>
+      </c>
+      <c r="C335" t="s">
+        <v>17</v>
+      </c>
+      <c r="D335"/>
+      <c r="E335"/>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>326</v>
+      </c>
+      <c r="B336" t="s">
+        <v>519</v>
+      </c>
+      <c r="C336" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336"/>
+      <c r="E336"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>520</v>
+      </c>
+      <c r="B337" t="s">
+        <v>521</v>
+      </c>
+      <c r="C337" t="s">
+        <v>13</v>
+      </c>
+      <c r="D337"/>
+      <c r="E337"/>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>93</v>
+      </c>
+      <c r="B338" t="s">
+        <v>522</v>
+      </c>
+      <c r="C338" t="s">
+        <v>17</v>
+      </c>
+      <c r="D338"/>
+      <c r="E338"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>523</v>
+      </c>
+      <c r="B339" t="s">
+        <v>524</v>
+      </c>
+      <c r="C339" t="s">
+        <v>10</v>
+      </c>
+      <c r="D339"/>
+      <c r="E339"/>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>85</v>
+      </c>
+      <c r="B340" t="s">
+        <v>525</v>
+      </c>
+      <c r="C340" t="s">
+        <v>20</v>
+      </c>
+      <c r="D340"/>
+      <c r="E340"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>471</v>
+      </c>
+      <c r="B341" t="s">
+        <v>526</v>
+      </c>
+      <c r="C341" t="s">
+        <v>10</v>
+      </c>
+      <c r="D341"/>
+      <c r="E341"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>527</v>
+      </c>
+      <c r="B342" t="s">
+        <v>528</v>
+      </c>
+      <c r="C342" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342"/>
+      <c r="E342"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>5</v>
+      </c>
+      <c r="B343" t="s">
+        <v>528</v>
+      </c>
+      <c r="C343" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343"/>
+      <c r="E343"/>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>529</v>
+      </c>
+      <c r="B344" t="s">
+        <v>530</v>
+      </c>
+      <c r="C344" t="s">
+        <v>10</v>
+      </c>
+      <c r="D344"/>
+      <c r="E344"/>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>531</v>
+      </c>
+      <c r="B345" t="s">
+        <v>532</v>
+      </c>
+      <c r="C345" t="s">
+        <v>13</v>
+      </c>
+      <c r="D345"/>
+      <c r="E345"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>268</v>
+      </c>
+      <c r="B346" t="s">
+        <v>533</v>
+      </c>
+      <c r="C346" t="s">
+        <v>20</v>
+      </c>
+      <c r="D346"/>
+      <c r="E346"/>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>534</v>
+      </c>
+      <c r="B347" t="s">
+        <v>535</v>
+      </c>
+      <c r="C347" t="s">
+        <v>36</v>
+      </c>
+      <c r="D347"/>
+      <c r="E347"/>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>149</v>
+      </c>
+      <c r="B348" t="s">
+        <v>535</v>
+      </c>
+      <c r="C348" t="s">
+        <v>36</v>
+      </c>
+      <c r="D348"/>
+      <c r="E348"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>536</v>
+      </c>
+      <c r="B349" t="s">
+        <v>537</v>
+      </c>
+      <c r="C349" t="s">
+        <v>10</v>
+      </c>
+      <c r="D349"/>
+      <c r="E349"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>538</v>
+      </c>
+      <c r="B350" t="s">
+        <v>539</v>
+      </c>
+      <c r="C350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350"/>
+      <c r="E350"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>140</v>
+      </c>
+      <c r="B351" t="s">
+        <v>539</v>
+      </c>
+      <c r="C351" t="s">
+        <v>17</v>
+      </c>
+      <c r="D351"/>
+      <c r="E351"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>236</v>
+      </c>
+      <c r="B352" t="s">
+        <v>540</v>
+      </c>
+      <c r="C352" t="s">
+        <v>10</v>
+      </c>
+      <c r="D352"/>
+      <c r="E352"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>77</v>
+      </c>
+      <c r="B353" t="s">
+        <v>541</v>
+      </c>
+      <c r="C353" t="s">
+        <v>10</v>
+      </c>
+      <c r="D353"/>
+      <c r="E353"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>542</v>
+      </c>
+      <c r="B354" t="s">
+        <v>543</v>
+      </c>
+      <c r="C354" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354"/>
+      <c r="E354"/>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>59</v>
+      </c>
+      <c r="B355" t="s">
+        <v>544</v>
+      </c>
+      <c r="C355" t="s">
+        <v>17</v>
+      </c>
+      <c r="D355"/>
+      <c r="E355"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>307</v>
+      </c>
+      <c r="B356" t="s">
+        <v>545</v>
+      </c>
+      <c r="C356" t="s">
+        <v>36</v>
+      </c>
+      <c r="D356"/>
+      <c r="E356"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>347</v>
+      </c>
+      <c r="B357" t="s">
+        <v>546</v>
+      </c>
+      <c r="C357" t="s">
+        <v>7</v>
+      </c>
+      <c r="D357"/>
+      <c r="E357"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>547</v>
+      </c>
+      <c r="B358" t="s">
+        <v>548</v>
+      </c>
+      <c r="C358" t="s">
+        <v>10</v>
+      </c>
+      <c r="D358"/>
+      <c r="E358"/>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>178</v>
+      </c>
+      <c r="B359" t="s">
+        <v>548</v>
+      </c>
+      <c r="C359" t="s">
+        <v>10</v>
+      </c>
+      <c r="D359"/>
+      <c r="E359"/>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>353</v>
+      </c>
+      <c r="B360" t="s">
+        <v>549</v>
+      </c>
+      <c r="C360" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360"/>
+      <c r="E360"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>550</v>
+      </c>
+      <c r="B361" t="s">
+        <v>551</v>
+      </c>
+      <c r="C361" t="s">
+        <v>10</v>
+      </c>
+      <c r="D361"/>
+      <c r="E361"/>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>149</v>
+      </c>
+      <c r="B362" t="s">
+        <v>552</v>
+      </c>
+      <c r="C362" t="s">
+        <v>7</v>
+      </c>
+      <c r="D362"/>
+      <c r="E362"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>111</v>
+      </c>
+      <c r="B363" t="s">
+        <v>552</v>
+      </c>
+      <c r="C363" t="s">
+        <v>113</v>
+      </c>
+      <c r="D363"/>
+      <c r="E363"/>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>111</v>
+      </c>
+      <c r="B364" t="s">
+        <v>552</v>
+      </c>
+      <c r="C364" t="s">
+        <v>36</v>
+      </c>
+      <c r="D364"/>
+      <c r="E364"/>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>255</v>
+      </c>
+      <c r="B365" t="s">
+        <v>552</v>
+      </c>
+      <c r="C365" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365"/>
+      <c r="E365"/>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>287</v>
+      </c>
+      <c r="B366" t="s">
+        <v>552</v>
+      </c>
+      <c r="C366" t="s">
+        <v>7</v>
+      </c>
+      <c r="D366"/>
+      <c r="E366"/>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>553</v>
+      </c>
+      <c r="B367" t="s">
+        <v>554</v>
+      </c>
+      <c r="C367" t="s">
+        <v>13</v>
+      </c>
+      <c r="D367"/>
+      <c r="E367"/>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>555</v>
+      </c>
+      <c r="B368" t="s">
+        <v>554</v>
+      </c>
+      <c r="C368" t="s">
+        <v>23</v>
+      </c>
+      <c r="D368"/>
+      <c r="E368"/>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>556</v>
+      </c>
+      <c r="B369" t="s">
+        <v>557</v>
+      </c>
+      <c r="C369" t="s">
+        <v>10</v>
+      </c>
+      <c r="D369"/>
+      <c r="E369"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>358</v>
+      </c>
+      <c r="B370" t="s">
+        <v>558</v>
+      </c>
+      <c r="C370" t="s">
+        <v>20</v>
+      </c>
+      <c r="D370"/>
+      <c r="E370"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>136</v>
+      </c>
+      <c r="B371" t="s">
+        <v>559</v>
+      </c>
+      <c r="C371" t="s">
+        <v>17</v>
+      </c>
+      <c r="D371"/>
+      <c r="E371"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>151</v>
+      </c>
+      <c r="B372" t="s">
+        <v>560</v>
+      </c>
+      <c r="C372" t="s">
+        <v>20</v>
+      </c>
+      <c r="D372"/>
+      <c r="E372"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>423</v>
+      </c>
+      <c r="B373" t="s">
+        <v>560</v>
+      </c>
+      <c r="C373" t="s">
+        <v>10</v>
+      </c>
+      <c r="D373"/>
+      <c r="E373"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>250</v>
+      </c>
+      <c r="B374" t="s">
+        <v>561</v>
+      </c>
+      <c r="C374" t="s">
+        <v>20</v>
+      </c>
+      <c r="D374"/>
+      <c r="E374"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>562</v>
+      </c>
+      <c r="B375" t="s">
+        <v>563</v>
+      </c>
+      <c r="C375" t="s">
+        <v>13</v>
+      </c>
+      <c r="D375"/>
+      <c r="E375"/>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>236</v>
+      </c>
+      <c r="B376" t="s">
+        <v>564</v>
+      </c>
+      <c r="C376" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376"/>
+      <c r="E376"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>565</v>
+      </c>
+      <c r="B377" t="s">
+        <v>566</v>
+      </c>
+      <c r="C377" t="s">
+        <v>10</v>
+      </c>
+      <c r="D377"/>
+      <c r="E377"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>567</v>
+      </c>
+      <c r="B378" t="s">
+        <v>568</v>
+      </c>
+      <c r="C378" t="s">
+        <v>20</v>
+      </c>
+      <c r="D378"/>
+      <c r="E378"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>569</v>
+      </c>
+      <c r="B379" t="s">
+        <v>570</v>
+      </c>
+      <c r="C379" t="s">
+        <v>20</v>
+      </c>
+      <c r="D379"/>
+      <c r="E379"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>571</v>
+      </c>
+      <c r="B380" t="s">
+        <v>572</v>
+      </c>
+      <c r="C380" t="s">
+        <v>10</v>
+      </c>
+      <c r="D380"/>
+      <c r="E380"/>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>573</v>
+      </c>
+      <c r="B381" t="s">
+        <v>574</v>
+      </c>
+      <c r="C381" t="s">
+        <v>17</v>
+      </c>
+      <c r="D381"/>
+      <c r="E381"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>575</v>
+      </c>
+      <c r="B382" t="s">
+        <v>576</v>
+      </c>
+      <c r="C382" t="s">
+        <v>10</v>
+      </c>
+      <c r="D382"/>
+      <c r="E382"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>257</v>
+      </c>
+      <c r="B383" t="s">
+        <v>576</v>
+      </c>
+      <c r="C383" t="s">
+        <v>7</v>
+      </c>
+      <c r="D383"/>
+      <c r="E383"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>349</v>
+      </c>
+      <c r="B384" t="s">
+        <v>576</v>
+      </c>
+      <c r="C384" t="s">
+        <v>13</v>
+      </c>
+      <c r="D384"/>
+      <c r="E384"/>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>577</v>
+      </c>
+      <c r="B385" t="s">
+        <v>576</v>
+      </c>
+      <c r="C385" t="s">
+        <v>10</v>
+      </c>
+      <c r="D385"/>
+      <c r="E385"/>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>578</v>
+      </c>
+      <c r="B386" t="s">
+        <v>576</v>
+      </c>
+      <c r="C386" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386"/>
+      <c r="E386"/>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>579</v>
+      </c>
+      <c r="B387" t="s">
+        <v>576</v>
+      </c>
+      <c r="C387" t="s">
+        <v>36</v>
+      </c>
+      <c r="D387"/>
+      <c r="E387"/>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>326</v>
+      </c>
+      <c r="B388" t="s">
+        <v>580</v>
+      </c>
+      <c r="C388" t="s">
+        <v>7</v>
+      </c>
+      <c r="D388"/>
+      <c r="E388"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>510</v>
+      </c>
+      <c r="B389" t="s">
+        <v>580</v>
+      </c>
+      <c r="C389" t="s">
+        <v>7</v>
+      </c>
+      <c r="D389"/>
+      <c r="E389"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>151</v>
+      </c>
+      <c r="B390" t="s">
+        <v>581</v>
+      </c>
+      <c r="C390" t="s">
+        <v>13</v>
+      </c>
+      <c r="D390"/>
+      <c r="E390"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>506</v>
+      </c>
+      <c r="B391" t="s">
+        <v>582</v>
+      </c>
+      <c r="C391" t="s">
+        <v>10</v>
+      </c>
+      <c r="D391"/>
+      <c r="E391"/>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>305</v>
+      </c>
+      <c r="B392" t="s">
+        <v>582</v>
+      </c>
+      <c r="C392" t="s">
+        <v>23</v>
+      </c>
+      <c r="D392"/>
+      <c r="E392"/>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>583</v>
+      </c>
+      <c r="B393" t="s">
+        <v>584</v>
+      </c>
+      <c r="C393" t="s">
+        <v>17</v>
+      </c>
+      <c r="D393"/>
+      <c r="E393"/>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>347</v>
+      </c>
+      <c r="B394" t="s">
+        <v>585</v>
+      </c>
+      <c r="C394" t="s">
+        <v>13</v>
+      </c>
+      <c r="D394"/>
+      <c r="E394"/>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>586</v>
+      </c>
+      <c r="B395" t="s">
+        <v>587</v>
+      </c>
+      <c r="C395" t="s">
+        <v>17</v>
+      </c>
+      <c r="D395"/>
+      <c r="E395"/>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>91</v>
+      </c>
+      <c r="B396" t="s">
+        <v>588</v>
+      </c>
+      <c r="C396" t="s">
+        <v>10</v>
+      </c>
+      <c r="D396"/>
+      <c r="E396"/>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>589</v>
+      </c>
+      <c r="B397" t="s">
+        <v>590</v>
+      </c>
+      <c r="C397" t="s">
+        <v>23</v>
+      </c>
+      <c r="D397"/>
+      <c r="E397"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>332</v>
+      </c>
+      <c r="B398" t="s">
+        <v>591</v>
+      </c>
+      <c r="C398" t="s">
+        <v>10</v>
+      </c>
+      <c r="D398"/>
+      <c r="E398"/>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>592</v>
+      </c>
+      <c r="B399" t="s">
+        <v>593</v>
+      </c>
+      <c r="C399" t="s">
+        <v>13</v>
+      </c>
+      <c r="D399"/>
+      <c r="E399"/>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>594</v>
+      </c>
+      <c r="B400" t="s">
+        <v>595</v>
+      </c>
+      <c r="C400" t="s">
+        <v>10</v>
+      </c>
+      <c r="D400"/>
+      <c r="E400"/>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>596</v>
+      </c>
+      <c r="B401" t="s">
+        <v>597</v>
+      </c>
+      <c r="C401"/>
+      <c r="D401"/>
+      <c r="E401"/>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>598</v>
+      </c>
+      <c r="B402" t="s">
+        <v>599</v>
+      </c>
+      <c r="C402" t="s">
+        <v>17</v>
+      </c>
+      <c r="D402"/>
+      <c r="E402"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>513</v>
+      </c>
+      <c r="B403" t="s">
+        <v>600</v>
+      </c>
+      <c r="C403" t="s">
+        <v>10</v>
+      </c>
+      <c r="D403"/>
+      <c r="E403"/>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>601</v>
+      </c>
+      <c r="B404" t="s">
+        <v>602</v>
+      </c>
+      <c r="C404" t="s">
+        <v>17</v>
+      </c>
+      <c r="D404"/>
+      <c r="E404"/>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>229</v>
+      </c>
+      <c r="B405" t="s">
+        <v>603</v>
+      </c>
+      <c r="C405" t="s">
+        <v>7</v>
+      </c>
+      <c r="D405"/>
+      <c r="E405"/>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>604</v>
+      </c>
+      <c r="B406" t="s">
+        <v>605</v>
+      </c>
+      <c r="C406" t="s">
+        <v>23</v>
+      </c>
+      <c r="D406"/>
+      <c r="E406"/>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>244</v>
+      </c>
+      <c r="B407" t="s">
+        <v>606</v>
+      </c>
+      <c r="C407" t="s">
+        <v>39</v>
+      </c>
+      <c r="D407"/>
+      <c r="E407"/>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>298</v>
+      </c>
+      <c r="B408" t="s">
+        <v>607</v>
+      </c>
+      <c r="C408" t="s">
+        <v>7</v>
+      </c>
+      <c r="D408"/>
+      <c r="E408"/>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>160</v>
+      </c>
+      <c r="B409" t="s">
+        <v>608</v>
+      </c>
+      <c r="C409" t="s">
+        <v>20</v>
+      </c>
+      <c r="D409"/>
+      <c r="E409"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>538</v>
+      </c>
+      <c r="B410" t="s">
+        <v>609</v>
+      </c>
+      <c r="C410" t="s">
+        <v>10</v>
+      </c>
+      <c r="D410"/>
+      <c r="E410"/>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>347</v>
+      </c>
+      <c r="B411" t="s">
+        <v>609</v>
+      </c>
+      <c r="C411" t="s">
+        <v>23</v>
+      </c>
+      <c r="D411"/>
+      <c r="E411"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>610</v>
+      </c>
+      <c r="B412" t="s">
+        <v>611</v>
+      </c>
+      <c r="C412" t="s">
+        <v>10</v>
+      </c>
+      <c r="D412"/>
+      <c r="E412"/>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>181</v>
+      </c>
+      <c r="B413" t="s">
+        <v>612</v>
+      </c>
+      <c r="C413" t="s">
+        <v>7</v>
+      </c>
+      <c r="D413"/>
+      <c r="E413"/>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>613</v>
+      </c>
+      <c r="B414" t="s">
+        <v>614</v>
+      </c>
+      <c r="C414" t="s">
+        <v>7</v>
+      </c>
+      <c r="D414"/>
+      <c r="E414"/>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>510</v>
+      </c>
+      <c r="B415" t="s">
+        <v>615</v>
+      </c>
+      <c r="C415" t="s">
+        <v>13</v>
+      </c>
+      <c r="D415"/>
+      <c r="E415"/>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>37</v>
+      </c>
+      <c r="B416" t="s">
+        <v>616</v>
+      </c>
+      <c r="C416" t="s">
+        <v>20</v>
+      </c>
+      <c r="D416"/>
+      <c r="E416"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>617</v>
+      </c>
+      <c r="B417" t="s">
+        <v>618</v>
+      </c>
+      <c r="C417" t="s">
+        <v>17</v>
+      </c>
+      <c r="D417"/>
+      <c r="E417"/>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>619</v>
+      </c>
+      <c r="B418" t="s">
+        <v>620</v>
+      </c>
+      <c r="C418" t="s">
+        <v>13</v>
+      </c>
+      <c r="D418"/>
+      <c r="E418"/>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>149</v>
+      </c>
+      <c r="B419" t="s">
+        <v>620</v>
+      </c>
+      <c r="C419" t="s">
+        <v>10</v>
+      </c>
+      <c r="D419"/>
+      <c r="E419"/>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>93</v>
+      </c>
+      <c r="B420" t="s">
+        <v>621</v>
+      </c>
+      <c r="C420" t="s">
+        <v>7</v>
+      </c>
+      <c r="D420"/>
+      <c r="E420"/>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>332</v>
+      </c>
+      <c r="B421" t="s">
+        <v>622</v>
+      </c>
+      <c r="C421" t="s">
+        <v>10</v>
+      </c>
+      <c r="D421"/>
+      <c r="E421"/>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>360</v>
+      </c>
+      <c r="B422" t="s">
+        <v>623</v>
+      </c>
+      <c r="C422" t="s">
+        <v>23</v>
+      </c>
+      <c r="D422"/>
+      <c r="E422"/>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>510</v>
+      </c>
+      <c r="B423" t="s">
+        <v>623</v>
+      </c>
+      <c r="C423" t="s">
+        <v>23</v>
+      </c>
+      <c r="D423"/>
+      <c r="E423"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>24</v>
+      </c>
+      <c r="B424" t="s">
+        <v>624</v>
+      </c>
+      <c r="C424" t="s">
+        <v>13</v>
+      </c>
+      <c r="D424"/>
+      <c r="E424"/>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>625</v>
+      </c>
+      <c r="B425" t="s">
+        <v>624</v>
+      </c>
+      <c r="C425" t="s">
+        <v>20</v>
+      </c>
+      <c r="D425"/>
+      <c r="E425"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>160</v>
+      </c>
+      <c r="B426" t="s">
+        <v>626</v>
+      </c>
+      <c r="C426" t="s">
+        <v>7</v>
+      </c>
+      <c r="D426"/>
+      <c r="E426"/>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>627</v>
+      </c>
+      <c r="B427" t="s">
+        <v>628</v>
+      </c>
+      <c r="C427" t="s">
+        <v>10</v>
+      </c>
+      <c r="D427"/>
+      <c r="E427"/>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>629</v>
+      </c>
+      <c r="B428" t="s">
+        <v>630</v>
+      </c>
+      <c r="C428" t="s">
+        <v>10</v>
+      </c>
+      <c r="D428"/>
+      <c r="E428"/>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>631</v>
+      </c>
+      <c r="B429" t="s">
+        <v>632</v>
+      </c>
+      <c r="C429" t="s">
+        <v>13</v>
+      </c>
+      <c r="D429"/>
+      <c r="E429"/>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>633</v>
+      </c>
+      <c r="B430" t="s">
+        <v>634</v>
+      </c>
+      <c r="C430" t="s">
+        <v>13</v>
+      </c>
+      <c r="D430"/>
+      <c r="E430"/>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>16</v>
+      </c>
+      <c r="B431" t="s">
+        <v>635</v>
+      </c>
+      <c r="C431" t="s">
+        <v>10</v>
+      </c>
+      <c r="D431"/>
+      <c r="E431"/>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" t="s">
+        <v>238</v>
+      </c>
+      <c r="B432" t="s">
+        <v>636</v>
+      </c>
+      <c r="C432" t="s">
+        <v>10</v>
+      </c>
+      <c r="D432"/>
+      <c r="E432"/>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>140</v>
+      </c>
+      <c r="B433" t="s">
+        <v>637</v>
+      </c>
+      <c r="C433" t="s">
+        <v>20</v>
+      </c>
+      <c r="D433"/>
+      <c r="E433"/>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>268</v>
+      </c>
+      <c r="B434" t="s">
+        <v>638</v>
+      </c>
+      <c r="C434" t="s">
+        <v>10</v>
+      </c>
+      <c r="D434"/>
+      <c r="E434"/>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>21</v>
+      </c>
+      <c r="B435" t="s">
+        <v>639</v>
+      </c>
+      <c r="C435" t="s">
+        <v>17</v>
+      </c>
+      <c r="D435"/>
+      <c r="E435"/>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" t="s">
+        <v>640</v>
+      </c>
+      <c r="B436" t="s">
+        <v>641</v>
+      </c>
+      <c r="C436" t="s">
+        <v>13</v>
+      </c>
+      <c r="D436"/>
+      <c r="E436"/>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" t="s">
+        <v>332</v>
+      </c>
+      <c r="B437" t="s">
+        <v>642</v>
+      </c>
+      <c r="C437" t="s">
+        <v>10</v>
+      </c>
+      <c r="D437"/>
+      <c r="E437"/>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
+        <v>332</v>
+      </c>
+      <c r="B438" t="s">
+        <v>643</v>
+      </c>
+      <c r="C438" t="s">
+        <v>10</v>
+      </c>
+      <c r="D438"/>
+      <c r="E438"/>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" t="s">
+        <v>205</v>
+      </c>
+      <c r="B439" t="s">
+        <v>643</v>
+      </c>
+      <c r="C439" t="s">
+        <v>10</v>
+      </c>
+      <c r="D439"/>
+      <c r="E439"/>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" t="s">
+        <v>238</v>
+      </c>
+      <c r="B440" t="s">
+        <v>644</v>
+      </c>
+      <c r="C440" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440"/>
+      <c r="E440"/>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" t="s">
+        <v>645</v>
+      </c>
+      <c r="B441" t="s">
+        <v>646</v>
+      </c>
+      <c r="C441" t="s">
+        <v>17</v>
+      </c>
+      <c r="D441"/>
+      <c r="E441"/>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" t="s">
+        <v>37</v>
+      </c>
+      <c r="B442" t="s">
+        <v>646</v>
+      </c>
+      <c r="C442" t="s">
+        <v>20</v>
+      </c>
+      <c r="D442"/>
+      <c r="E442"/>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" t="s">
+        <v>73</v>
+      </c>
+      <c r="B443" t="s">
+        <v>647</v>
+      </c>
+      <c r="C443" t="s">
+        <v>10</v>
+      </c>
+      <c r="D443"/>
+      <c r="E443"/>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" t="s">
+        <v>73</v>
+      </c>
+      <c r="B444" t="s">
+        <v>648</v>
+      </c>
+      <c r="C444" t="s">
+        <v>10</v>
+      </c>
+      <c r="D444"/>
+      <c r="E444"/>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" t="s">
+        <v>649</v>
+      </c>
+      <c r="B445" t="s">
+        <v>650</v>
+      </c>
+      <c r="C445" t="s">
+        <v>13</v>
+      </c>
+      <c r="D445"/>
+      <c r="E445"/>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" t="s">
+        <v>651</v>
+      </c>
+      <c r="B446" t="s">
+        <v>652</v>
+      </c>
+      <c r="C446" t="s">
+        <v>13</v>
+      </c>
+      <c r="D446"/>
+      <c r="E446"/>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" t="s">
+        <v>653</v>
+      </c>
+      <c r="B447" t="s">
+        <v>654</v>
+      </c>
+      <c r="C447" t="s">
+        <v>13</v>
+      </c>
+      <c r="D447"/>
+      <c r="E447"/>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" t="s">
+        <v>149</v>
+      </c>
+      <c r="B448" t="s">
+        <v>655</v>
+      </c>
+      <c r="C448" t="s">
+        <v>7</v>
+      </c>
+      <c r="D448"/>
+      <c r="E448"/>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" t="s">
+        <v>656</v>
+      </c>
+      <c r="B449" t="s">
+        <v>657</v>
+      </c>
+      <c r="C449" t="s">
+        <v>17</v>
+      </c>
+      <c r="D449"/>
+      <c r="E449"/>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" t="s">
+        <v>658</v>
+      </c>
+      <c r="B450" t="s">
+        <v>659</v>
+      </c>
+      <c r="C450" t="s">
+        <v>17</v>
+      </c>
+      <c r="D450"/>
+      <c r="E450"/>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" t="s">
+        <v>660</v>
+      </c>
+      <c r="B451" t="s">
+        <v>661</v>
+      </c>
+      <c r="C451" t="s">
+        <v>17</v>
+      </c>
+      <c r="D451"/>
+      <c r="E451"/>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" t="s">
+        <v>510</v>
+      </c>
+      <c r="B452" t="s">
+        <v>662</v>
+      </c>
+      <c r="C452" t="s">
+        <v>17</v>
+      </c>
+      <c r="D452"/>
+      <c r="E452"/>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" t="s">
+        <v>663</v>
+      </c>
+      <c r="B453" t="s">
+        <v>662</v>
+      </c>
+      <c r="C453" t="s">
+        <v>10</v>
+      </c>
+      <c r="D453"/>
+      <c r="E453"/>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" t="s">
+        <v>562</v>
+      </c>
+      <c r="B454" t="s">
+        <v>664</v>
+      </c>
+      <c r="C454" t="s">
+        <v>10</v>
+      </c>
+      <c r="D454"/>
+      <c r="E454"/>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" t="s">
+        <v>205</v>
+      </c>
+      <c r="B455" t="s">
+        <v>665</v>
+      </c>
+      <c r="C455" t="s">
+        <v>23</v>
+      </c>
+      <c r="D455"/>
+      <c r="E455"/>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" t="s">
+        <v>219</v>
+      </c>
+      <c r="B456" t="s">
+        <v>666</v>
+      </c>
+      <c r="C456" t="s">
+        <v>17</v>
+      </c>
+      <c r="D456"/>
+      <c r="E456"/>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" t="s">
+        <v>667</v>
+      </c>
+      <c r="B457" t="s">
+        <v>668</v>
+      </c>
+      <c r="C457" t="s">
+        <v>10</v>
+      </c>
+      <c r="D457"/>
+      <c r="E457"/>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" t="s">
+        <v>669</v>
+      </c>
+      <c r="B458" t="s">
+        <v>670</v>
+      </c>
+      <c r="C458" t="s">
+        <v>10</v>
+      </c>
+      <c r="D458"/>
+      <c r="E458"/>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" t="s">
+        <v>671</v>
+      </c>
+      <c r="B459" t="s">
+        <v>672</v>
+      </c>
+      <c r="C459" t="s">
+        <v>240</v>
+      </c>
+      <c r="D459"/>
+      <c r="E459"/>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" t="s">
+        <v>510</v>
+      </c>
+      <c r="B460" t="s">
+        <v>673</v>
+      </c>
+      <c r="C460" t="s">
+        <v>13</v>
+      </c>
+      <c r="D460"/>
+      <c r="E460"/>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" t="s">
+        <v>119</v>
+      </c>
+      <c r="B461" t="s">
+        <v>674</v>
+      </c>
+      <c r="C461" t="s">
+        <v>10</v>
+      </c>
+      <c r="D461"/>
+      <c r="E461"/>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" t="s">
+        <v>675</v>
+      </c>
+      <c r="B462" t="s">
+        <v>676</v>
+      </c>
+      <c r="C462" t="s">
+        <v>23</v>
+      </c>
+      <c r="D462"/>
+      <c r="E462"/>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" t="s">
+        <v>385</v>
+      </c>
+      <c r="B463" t="s">
+        <v>677</v>
+      </c>
+      <c r="C463" t="s">
+        <v>17</v>
+      </c>
+      <c r="D463"/>
+      <c r="E463"/>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" t="s">
+        <v>380</v>
+      </c>
+      <c r="B464" t="s">
+        <v>678</v>
+      </c>
+      <c r="C464" t="s">
+        <v>17</v>
+      </c>
+      <c r="D464"/>
+      <c r="E464"/>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" t="s">
+        <v>679</v>
+      </c>
+      <c r="B465" t="s">
+        <v>680</v>
+      </c>
+      <c r="C465" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465"/>
+      <c r="E465"/>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" t="s">
+        <v>681</v>
+      </c>
+      <c r="B466" t="s">
+        <v>680</v>
+      </c>
+      <c r="C466" t="s">
+        <v>7</v>
+      </c>
+      <c r="D466"/>
+      <c r="E466"/>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" t="s">
+        <v>119</v>
+      </c>
+      <c r="B467" t="s">
+        <v>682</v>
+      </c>
+      <c r="C467" t="s">
+        <v>7</v>
+      </c>
+      <c r="D467"/>
+      <c r="E467"/>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" t="s">
+        <v>166</v>
+      </c>
+      <c r="B468" t="s">
+        <v>683</v>
+      </c>
+      <c r="C468" t="s">
+        <v>13</v>
+      </c>
+      <c r="D468"/>
+      <c r="E468"/>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" t="s">
+        <v>684</v>
+      </c>
+      <c r="B469" t="s">
+        <v>685</v>
+      </c>
+      <c r="C469" t="s">
+        <v>17</v>
+      </c>
+      <c r="D469"/>
+      <c r="E469"/>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" t="s">
+        <v>242</v>
+      </c>
+      <c r="B470" t="s">
+        <v>686</v>
+      </c>
+      <c r="C470" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470"/>
+      <c r="E470"/>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" t="s">
+        <v>332</v>
+      </c>
+      <c r="B471" t="s">
+        <v>687</v>
+      </c>
+      <c r="C471" t="s">
+        <v>13</v>
+      </c>
+      <c r="D471"/>
+      <c r="E471"/>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" t="s">
+        <v>142</v>
+      </c>
+      <c r="B472" t="s">
+        <v>688</v>
+      </c>
+      <c r="C472" t="s">
+        <v>20</v>
+      </c>
+      <c r="D472"/>
+      <c r="E472"/>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" t="s">
+        <v>689</v>
+      </c>
+      <c r="B473" t="s">
+        <v>690</v>
+      </c>
+      <c r="C473" t="s">
+        <v>23</v>
+      </c>
+      <c r="D473"/>
+      <c r="E473"/>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" t="s">
+        <v>691</v>
+      </c>
+      <c r="B474" t="s">
+        <v>692</v>
+      </c>
+      <c r="C474"/>
+      <c r="D474"/>
+      <c r="E474"/>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" t="s">
+        <v>33</v>
+      </c>
+      <c r="B475" t="s">
+        <v>692</v>
+      </c>
+      <c r="C475" t="s">
+        <v>10</v>
+      </c>
+      <c r="D475"/>
+      <c r="E475"/>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" t="s">
+        <v>693</v>
+      </c>
+      <c r="B476" t="s">
+        <v>694</v>
+      </c>
+      <c r="C476" t="s">
+        <v>39</v>
+      </c>
+      <c r="D476"/>
+      <c r="E476"/>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" t="s">
+        <v>236</v>
+      </c>
+      <c r="B477" t="s">
+        <v>695</v>
+      </c>
+      <c r="C477" t="s">
+        <v>7</v>
+      </c>
+      <c r="D477"/>
+      <c r="E477"/>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" t="s">
+        <v>151</v>
+      </c>
+      <c r="B478" t="s">
+        <v>696</v>
+      </c>
+      <c r="C478" t="s">
+        <v>39</v>
+      </c>
+      <c r="D478"/>
+      <c r="E478"/>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" t="s">
+        <v>697</v>
+      </c>
+      <c r="B479" t="s">
+        <v>698</v>
+      </c>
+      <c r="C479" t="s">
+        <v>10</v>
+      </c>
+      <c r="D479"/>
+      <c r="E479"/>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" t="s">
+        <v>43</v>
+      </c>
+      <c r="B480" t="s">
+        <v>699</v>
+      </c>
+      <c r="C480" t="s">
+        <v>20</v>
+      </c>
+      <c r="D480"/>
+      <c r="E480"/>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" t="s">
+        <v>158</v>
+      </c>
+      <c r="B481" t="s">
+        <v>700</v>
+      </c>
+      <c r="C481" t="s">
+        <v>17</v>
+      </c>
+      <c r="D481"/>
+      <c r="E481"/>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" t="s">
+        <v>66</v>
+      </c>
+      <c r="B482" t="s">
+        <v>701</v>
+      </c>
+      <c r="C482" t="s">
+        <v>23</v>
+      </c>
+      <c r="D482"/>
+      <c r="E482"/>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" t="s">
+        <v>702</v>
+      </c>
+      <c r="B483" t="s">
+        <v>701</v>
+      </c>
+      <c r="C483"/>
+      <c r="D483"/>
+      <c r="E483"/>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" t="s">
+        <v>236</v>
+      </c>
+      <c r="B484" t="s">
+        <v>703</v>
+      </c>
+      <c r="C484" t="s">
+        <v>13</v>
+      </c>
+      <c r="D484"/>
+      <c r="E484"/>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" t="s">
+        <v>704</v>
+      </c>
+      <c r="B485" t="s">
+        <v>703</v>
+      </c>
+      <c r="C485" t="s">
+        <v>10</v>
+      </c>
+      <c r="D485"/>
+      <c r="E485"/>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" t="s">
+        <v>705</v>
+      </c>
+      <c r="B486" t="s">
+        <v>703</v>
+      </c>
+      <c r="C486" t="s">
+        <v>10</v>
+      </c>
+      <c r="D486"/>
+      <c r="E486"/>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" t="s">
+        <v>244</v>
+      </c>
+      <c r="B487" t="s">
+        <v>706</v>
+      </c>
+      <c r="C487" t="s">
+        <v>13</v>
+      </c>
+      <c r="D487"/>
+      <c r="E487"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" t="s">
+        <v>707</v>
+      </c>
+      <c r="B488" t="s">
+        <v>708</v>
+      </c>
+      <c r="C488" t="s">
+        <v>10</v>
+      </c>
+      <c r="D488"/>
+      <c r="E488"/>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" t="s">
+        <v>709</v>
+      </c>
+      <c r="B489" t="s">
+        <v>710</v>
+      </c>
+      <c r="C489" t="s">
+        <v>10</v>
+      </c>
+      <c r="D489"/>
+      <c r="E489"/>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" t="s">
+        <v>111</v>
+      </c>
+      <c r="B490" t="s">
+        <v>711</v>
+      </c>
+      <c r="C490" t="s">
+        <v>17</v>
+      </c>
+      <c r="D490"/>
+      <c r="E490"/>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" t="s">
+        <v>712</v>
+      </c>
+      <c r="B491" t="s">
+        <v>713</v>
+      </c>
+      <c r="C491" t="s">
+        <v>23</v>
+      </c>
+      <c r="D491"/>
+      <c r="E491"/>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" t="s">
+        <v>714</v>
+      </c>
+      <c r="B492" t="s">
+        <v>715</v>
+      </c>
+      <c r="C492" t="s">
+        <v>23</v>
+      </c>
+      <c r="D492"/>
+      <c r="E492"/>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" t="s">
+        <v>125</v>
+      </c>
+      <c r="B493" t="s">
+        <v>716</v>
+      </c>
+      <c r="C493" t="s">
+        <v>13</v>
+      </c>
+      <c r="D493"/>
+      <c r="E493"/>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" t="s">
+        <v>717</v>
+      </c>
+      <c r="B494" t="s">
+        <v>718</v>
+      </c>
+      <c r="C494" t="s">
+        <v>23</v>
+      </c>
+      <c r="D494"/>
+      <c r="E494"/>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" t="s">
+        <v>413</v>
+      </c>
+      <c r="B495" t="s">
+        <v>719</v>
+      </c>
+      <c r="C495" t="s">
+        <v>17</v>
+      </c>
+      <c r="D495"/>
+      <c r="E495"/>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" t="s">
+        <v>720</v>
+      </c>
+      <c r="B496" t="s">
+        <v>721</v>
+      </c>
+      <c r="C496" t="s">
+        <v>7</v>
+      </c>
+      <c r="D496"/>
+      <c r="E496"/>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" t="s">
+        <v>298</v>
+      </c>
+      <c r="B497" t="s">
+        <v>722</v>
+      </c>
+      <c r="C497" t="s">
+        <v>13</v>
+      </c>
+      <c r="D497"/>
+      <c r="E497"/>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" t="s">
+        <v>517</v>
+      </c>
+      <c r="B498" t="s">
+        <v>723</v>
+      </c>
+      <c r="C498" t="s">
+        <v>13</v>
+      </c>
+      <c r="D498"/>
+      <c r="E498"/>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" t="s">
+        <v>724</v>
+      </c>
+      <c r="B499" t="s">
+        <v>725</v>
+      </c>
+      <c r="C499" t="s">
+        <v>113</v>
+      </c>
+      <c r="D499"/>
+      <c r="E499"/>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" t="s">
+        <v>305</v>
+      </c>
+      <c r="B500" t="s">
+        <v>726</v>
+      </c>
+      <c r="C500" t="s">
+        <v>23</v>
+      </c>
+      <c r="D500"/>
+      <c r="E500"/>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" t="s">
+        <v>119</v>
+      </c>
+      <c r="B501" t="s">
+        <v>727</v>
+      </c>
+      <c r="C501" t="s">
+        <v>13</v>
+      </c>
+      <c r="D501"/>
+      <c r="E501"/>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" t="s">
+        <v>16</v>
+      </c>
+      <c r="B502" t="s">
+        <v>728</v>
+      </c>
+      <c r="C502" t="s">
+        <v>20</v>
+      </c>
+      <c r="D502"/>
+      <c r="E502"/>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" t="s">
+        <v>380</v>
+      </c>
+      <c r="B503" t="s">
+        <v>729</v>
+      </c>
+      <c r="C503" t="s">
+        <v>10</v>
+      </c>
+      <c r="D503"/>
+      <c r="E503"/>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" t="s">
+        <v>730</v>
+      </c>
+      <c r="B504" t="s">
+        <v>731</v>
+      </c>
+      <c r="C504"/>
+      <c r="D504"/>
+      <c r="E504"/>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" t="s">
+        <v>732</v>
+      </c>
+      <c r="B505" t="s">
+        <v>733</v>
+      </c>
+      <c r="C505" t="s">
+        <v>10</v>
+      </c>
+      <c r="D505"/>
+      <c r="E505"/>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" t="s">
+        <v>734</v>
+      </c>
+      <c r="B506" t="s">
+        <v>735</v>
+      </c>
+      <c r="C506" t="s">
+        <v>13</v>
+      </c>
+      <c r="D506"/>
+      <c r="E506"/>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" t="s">
+        <v>149</v>
+      </c>
+      <c r="B507" t="s">
+        <v>736</v>
+      </c>
+      <c r="C507" t="s">
+        <v>13</v>
+      </c>
+      <c r="D507"/>
+      <c r="E507"/>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" t="s">
+        <v>48</v>
+      </c>
+      <c r="B508" t="s">
+        <v>737</v>
+      </c>
+      <c r="C508" t="s">
+        <v>13</v>
+      </c>
+      <c r="D508"/>
+      <c r="E508"/>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" t="s">
+        <v>158</v>
+      </c>
+      <c r="B509" t="s">
+        <v>737</v>
+      </c>
+      <c r="C509" t="s">
+        <v>17</v>
+      </c>
+      <c r="D509"/>
+      <c r="E509"/>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" t="s">
+        <v>669</v>
+      </c>
+      <c r="B510" t="s">
+        <v>738</v>
+      </c>
+      <c r="C510" t="s">
+        <v>23</v>
+      </c>
+      <c r="D510"/>
+      <c r="E510"/>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" t="s">
+        <v>739</v>
+      </c>
+      <c r="B511" t="s">
+        <v>740</v>
+      </c>
+      <c r="C511" t="s">
+        <v>10</v>
+      </c>
+      <c r="D511"/>
+      <c r="E511"/>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" t="s">
+        <v>331</v>
+      </c>
+      <c r="B512" t="s">
+        <v>741</v>
+      </c>
+      <c r="C512" t="s">
+        <v>7</v>
+      </c>
+      <c r="D512"/>
+      <c r="E512"/>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" t="s">
+        <v>742</v>
+      </c>
+      <c r="B513" t="s">
+        <v>743</v>
+      </c>
+      <c r="C513" t="s">
+        <v>13</v>
+      </c>
+      <c r="D513"/>
+      <c r="E513"/>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" t="s">
+        <v>744</v>
+      </c>
+      <c r="B514" t="s">
+        <v>745</v>
+      </c>
+      <c r="C514" t="s">
+        <v>23</v>
+      </c>
+      <c r="D514"/>
+      <c r="E514"/>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" t="s">
+        <v>746</v>
+      </c>
+      <c r="B515" t="s">
+        <v>745</v>
+      </c>
+      <c r="C515"/>
+      <c r="D515"/>
+      <c r="E515"/>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" t="s">
+        <v>48</v>
+      </c>
+      <c r="B516" t="s">
+        <v>747</v>
+      </c>
+      <c r="C516" t="s">
+        <v>36</v>
+      </c>
+      <c r="D516"/>
+      <c r="E516"/>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" t="s">
+        <v>748</v>
+      </c>
+      <c r="B517" t="s">
+        <v>749</v>
+      </c>
+      <c r="C517" t="s">
+        <v>13</v>
+      </c>
+      <c r="D517"/>
+      <c r="E517"/>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" t="s">
+        <v>63</v>
+      </c>
+      <c r="B518" t="s">
+        <v>750</v>
+      </c>
+      <c r="C518" t="s">
+        <v>23</v>
+      </c>
+      <c r="D518"/>
+      <c r="E518"/>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" t="s">
+        <v>77</v>
+      </c>
+      <c r="B519" t="s">
+        <v>750</v>
+      </c>
+      <c r="C519" t="s">
+        <v>20</v>
+      </c>
+      <c r="D519"/>
+      <c r="E519"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
